--- a/template.xlsx
+++ b/template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="204">
   <si>
     <t>Language_id</t>
   </si>
@@ -37,6 +37,9 @@
     <t>2022-03-30T12:03:15.000Z</t>
   </si>
   <si>
+    <t>2022-03-30T17:15:24.000Z</t>
+  </si>
+  <si>
     <t>active</t>
   </si>
   <si>
@@ -46,6 +49,9 @@
     <t>2022-03-30T12:03:16.000Z</t>
   </si>
   <si>
+    <t>2022-03-30T17:15:25.000Z</t>
+  </si>
+  <si>
     <t>IN-hi</t>
   </si>
   <si>
@@ -61,12 +67,18 @@
     <t>2022-03-30T12:03:17.000Z</t>
   </si>
   <si>
+    <t>2022-03-30T17:15:26.000Z</t>
+  </si>
+  <si>
     <t>Signup</t>
   </si>
   <si>
     <t>Dashboard</t>
   </si>
   <si>
+    <t>2022-03-30T17:15:27.000Z</t>
+  </si>
+  <si>
     <t>Upload</t>
   </si>
   <si>
@@ -76,6 +88,15 @@
     <t>Preview</t>
   </si>
   <si>
+    <t>2022-03-30T17:15:28.000Z</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>2022-03-30T12:14:27.000Z</t>
+  </si>
+  <si>
     <t>Label_id</t>
   </si>
   <si>
@@ -97,6 +118,9 @@
     <t>2022-03-30T12:03:19.000Z</t>
   </si>
   <si>
+    <t>2022-03-30T17:15:29.000Z</t>
+  </si>
+  <si>
     <t>यूजर डेटाबेस</t>
   </si>
   <si>
@@ -112,6 +136,9 @@
     <t>2022-03-30T12:03:20.000Z</t>
   </si>
   <si>
+    <t>2022-03-30T17:15:30.000Z</t>
+  </si>
+  <si>
     <t>सैन अप</t>
   </si>
   <si>
@@ -121,6 +148,9 @@
     <t>User Name</t>
   </si>
   <si>
+    <t>2022-03-30T17:15:31.000Z</t>
+  </si>
+  <si>
     <t>ಯೂಸರ್ ನೇಮ್</t>
   </si>
   <si>
@@ -133,6 +163,9 @@
     <t>password</t>
   </si>
   <si>
+    <t>2022-03-30T17:15:32.000Z</t>
+  </si>
+  <si>
     <t>ಪಾಸ್ವರ್ಡ್</t>
   </si>
   <si>
@@ -142,6 +175,9 @@
     <t>2022-03-30T12:03:22.000Z</t>
   </si>
   <si>
+    <t>2022-03-30T17:15:33.000Z</t>
+  </si>
+  <si>
     <t>signIn</t>
   </si>
   <si>
@@ -154,6 +190,9 @@
     <t>सैन इन</t>
   </si>
   <si>
+    <t>2022-03-30T17:15:34.000Z</t>
+  </si>
+  <si>
     <t>login</t>
   </si>
   <si>
@@ -163,6 +202,9 @@
     <t>ಲಾಗಿನ್</t>
   </si>
   <si>
+    <t>2022-03-30T17:15:35.000Z</t>
+  </si>
+  <si>
     <t>लॉगिन</t>
   </si>
   <si>
@@ -178,6 +220,9 @@
     <t>ಫಸ್ಟ್ ನೇಮ್</t>
   </si>
   <si>
+    <t>2022-03-30T17:15:36.000Z</t>
+  </si>
+  <si>
     <t>फर्स्ट नाम</t>
   </si>
   <si>
@@ -193,6 +238,9 @@
     <t>ಲಾಸ್ಟ ನೇಮ್</t>
   </si>
   <si>
+    <t>2022-03-30T17:15:37.000Z</t>
+  </si>
+  <si>
     <t>लास्ट नाम</t>
   </si>
   <si>
@@ -208,6 +256,9 @@
     <t>2022-03-30T12:03:26.000Z</t>
   </si>
   <si>
+    <t>2022-03-30T17:15:38.000Z</t>
+  </si>
+  <si>
     <t>ईमेल</t>
   </si>
   <si>
@@ -223,6 +274,9 @@
     <t>2022-03-30T12:03:27.000Z</t>
   </si>
   <si>
+    <t>2022-03-30T17:15:39.000Z</t>
+  </si>
+  <si>
     <t>लॉगआउट</t>
   </si>
   <si>
@@ -238,6 +292,9 @@
     <t>2022-03-30T12:03:28.000Z</t>
   </si>
   <si>
+    <t>2022-03-30T17:15:40.000Z</t>
+  </si>
+  <si>
     <t>स्वागत यूजर</t>
   </si>
   <si>
@@ -250,6 +307,9 @@
     <t>ಐಡೀ</t>
   </si>
   <si>
+    <t>2022-03-30T17:15:41.000Z</t>
+  </si>
+  <si>
     <t>आईडी</t>
   </si>
   <si>
@@ -262,6 +322,9 @@
     <t>Upload File</t>
   </si>
   <si>
+    <t>2022-03-30T17:15:42.000Z</t>
+  </si>
+  <si>
     <t>ಫೈಲ್ ಅಪ್ಲೋಡ್</t>
   </si>
   <si>
@@ -277,6 +340,9 @@
     <t>Please download the template and make changes to the same file before uploading it</t>
   </si>
   <si>
+    <t>2022-03-30T17:15:43.000Z</t>
+  </si>
+  <si>
     <t>ದಯವಿಟ್ಟು ಟೆಂಪ್ಲೇಟ್ ಅನ್ನು ಡೌನ್‌ಲೋಡ್ ಮಾಡಿ ಮತ್ತು ಅದನ್ನು ಅಪ್‌ಲೋಡ್ ಮಾಡುವ ಮೊದಲು ಅದೇ ಫೈಲ್‌ಗೆ ಬದಲಾವಣೆಗಳನ್ನು ಮಾಡಿ</t>
   </si>
   <si>
@@ -292,6 +358,9 @@
     <t>DOWNLOAD</t>
   </si>
   <si>
+    <t>2022-03-30T17:15:44.000Z</t>
+  </si>
+  <si>
     <t>ಡೌನ್ಲೋಡ್</t>
   </si>
   <si>
@@ -307,12 +376,18 @@
     <t>2022-03-30T12:03:32.000Z</t>
   </si>
   <si>
+    <t>2022-03-30T17:15:45.000Z</t>
+  </si>
+  <si>
     <t>ಎಕ್ಸೆಲ್ ಫೈಲ್ ಅನ್ನು ಅಪ್ಲೋಡ್ ಮಾಡಿ</t>
   </si>
   <si>
     <t>एक्सेल फ़ाइल अपलोड करें</t>
   </si>
   <si>
+    <t>2022-03-30T17:15:46.000Z</t>
+  </si>
+  <si>
     <t>validation</t>
   </si>
   <si>
@@ -328,6 +403,9 @@
     <t>उसी टेम्पलेट फ़ाइल को अपलोड करना सुनिश्चित करें जो संपादित और मान्य है</t>
   </si>
   <si>
+    <t>2022-03-30T17:15:47.000Z</t>
+  </si>
+  <si>
     <t>submit</t>
   </si>
   <si>
@@ -343,6 +421,9 @@
     <t>अपलोड</t>
   </si>
   <si>
+    <t>2022-03-30T17:15:48.000Z</t>
+  </si>
+  <si>
     <t>message</t>
   </si>
   <si>
@@ -352,6 +433,9 @@
     <t>ಫೈಲ್ ಅನ್ನು ಯಶಸ್ವಿಯಾಗಿ ಅಪ್‌ಲೋಡ್ ಮಾಡಲಾಗಿದೆ</t>
   </si>
   <si>
+    <t>2022-03-30T17:15:49.000Z</t>
+  </si>
+  <si>
     <t>फ़ाइल सफलतापूर्वक अपलोड कर दी गई है</t>
   </si>
   <si>
@@ -361,85 +445,187 @@
     <t>Page_map_id</t>
   </si>
   <si>
+    <t>2022-03-30T17:15:50.000Z</t>
+  </si>
+  <si>
     <t>2022-03-30T12:03:37.000Z</t>
   </si>
   <si>
+    <t>2022-03-30T17:15:51.000Z</t>
+  </si>
+  <si>
     <t>2022-03-30T12:03:38.000Z</t>
   </si>
   <si>
+    <t>2022-03-30T17:15:52.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-30T17:15:53.000Z</t>
+  </si>
+  <si>
     <t>2022-03-30T12:03:39.000Z</t>
   </si>
   <si>
+    <t>2022-03-30T17:15:54.000Z</t>
+  </si>
+  <si>
     <t>2022-03-30T12:03:40.000Z</t>
   </si>
   <si>
+    <t>2022-03-30T17:15:55.000Z</t>
+  </si>
+  <si>
     <t>2022-03-30T12:03:41.000Z</t>
   </si>
   <si>
+    <t>2022-03-30T17:15:56.000Z</t>
+  </si>
+  <si>
     <t>2022-03-30T12:03:42.000Z</t>
   </si>
   <si>
+    <t>2022-03-30T17:15:57.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-30T17:15:58.000Z</t>
+  </si>
+  <si>
     <t>2022-03-30T12:03:43.000Z</t>
   </si>
   <si>
+    <t>2022-03-30T17:15:59.000Z</t>
+  </si>
+  <si>
     <t>2022-03-30T12:03:44.000Z</t>
   </si>
   <si>
+    <t>2022-03-30T17:16:00.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-30T17:16:01.000Z</t>
+  </si>
+  <si>
     <t>2022-03-30T12:03:45.000Z</t>
   </si>
   <si>
+    <t>2022-03-30T17:16:02.000Z</t>
+  </si>
+  <si>
     <t>2022-03-30T12:03:46.000Z</t>
   </si>
   <si>
+    <t>2022-03-30T17:16:03.000Z</t>
+  </si>
+  <si>
     <t>2022-03-30T12:03:47.000Z</t>
   </si>
   <si>
+    <t>2022-03-30T17:16:04.000Z</t>
+  </si>
+  <si>
     <t>2022-03-30T12:03:48.000Z</t>
   </si>
   <si>
+    <t>2022-03-30T17:16:05.000Z</t>
+  </si>
+  <si>
     <t>2022-03-30T12:03:49.000Z</t>
   </si>
   <si>
+    <t>2022-03-30T17:16:06.000Z</t>
+  </si>
+  <si>
     <t>2022-03-30T12:03:50.000Z</t>
   </si>
   <si>
+    <t>2022-03-30T17:16:07.000Z</t>
+  </si>
+  <si>
     <t>2022-03-30T12:03:51.000Z</t>
   </si>
   <si>
+    <t>2022-03-30T17:16:08.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-30T17:16:09.000Z</t>
+  </si>
+  <si>
     <t>2022-03-30T12:03:52.000Z</t>
   </si>
   <si>
+    <t>2022-03-30T17:16:10.000Z</t>
+  </si>
+  <si>
     <t>2022-03-30T12:03:53.000Z</t>
   </si>
   <si>
+    <t>2022-03-30T17:16:11.000Z</t>
+  </si>
+  <si>
     <t>2022-03-30T12:03:54.000Z</t>
   </si>
   <si>
+    <t>2022-03-30T17:16:12.000Z</t>
+  </si>
+  <si>
     <t>2022-03-30T12:03:55.000Z</t>
   </si>
   <si>
+    <t>2022-03-30T17:16:13.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-30T17:16:14.000Z</t>
+  </si>
+  <si>
     <t>2022-03-30T12:03:56.000Z</t>
   </si>
   <si>
+    <t>2022-03-30T17:16:15.000Z</t>
+  </si>
+  <si>
     <t>2022-03-30T12:03:57.000Z</t>
   </si>
   <si>
     <t>2022-03-30T12:03:58.000Z</t>
   </si>
   <si>
+    <t>2022-03-30T17:16:16.000Z</t>
+  </si>
+  <si>
     <t>2022-03-30T12:03:59.000Z</t>
   </si>
   <si>
+    <t>2022-03-30T17:16:17.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-30T17:16:18.000Z</t>
+  </si>
+  <si>
     <t>2022-03-30T12:04:00.000Z</t>
   </si>
   <si>
+    <t>2022-03-30T17:16:19.000Z</t>
+  </si>
+  <si>
     <t>2022-03-30T12:04:01.000Z</t>
   </si>
   <si>
+    <t>2022-03-30T17:16:20.000Z</t>
+  </si>
+  <si>
     <t>2022-03-30T12:04:02.000Z</t>
   </si>
   <si>
+    <t>2022-03-30T17:16:21.000Z</t>
+  </si>
+  <si>
     <t>2022-03-30T12:04:03.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-30T17:16:22.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-30T17:16:23.000Z</t>
   </si>
 </sst>
 </file>
@@ -780,10 +966,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -791,16 +977,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -808,16 +994,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="5:5" x14ac:dyDescent="0.25">
@@ -3839,10 +4025,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -3859,16 +4045,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3876,16 +4062,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3893,16 +4079,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3910,16 +4096,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3927,20 +4113,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E7" s="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E8" s="4"/>
@@ -6951,13 +7151,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -6977,22 +7177,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -7000,22 +7200,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D3" s="5">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -7023,22 +7223,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D4" s="5">
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -7046,22 +7246,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -7069,22 +7269,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -7092,22 +7292,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D7" s="5">
         <v>3</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -7115,22 +7315,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -7138,22 +7338,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D9" s="5">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -7161,22 +7361,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D10" s="5">
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -7184,22 +7384,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -7207,22 +7407,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D12" s="5">
         <v>2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -7230,22 +7430,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D13" s="5">
         <v>3</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -7253,22 +7453,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -7276,22 +7476,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D15" s="5">
         <v>2</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -7299,22 +7499,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D16" s="5">
         <v>3</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -7322,22 +7522,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D17" s="5">
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -7345,22 +7545,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D18" s="5">
         <v>2</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -7368,22 +7568,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D19" s="5">
         <v>3</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -7391,22 +7591,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -7414,22 +7614,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D21" s="5">
         <v>2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -7437,22 +7637,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D22" s="5">
         <v>3</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -7460,22 +7660,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D23" s="5">
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -7483,22 +7683,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D24" s="5">
         <v>2</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -7506,22 +7706,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D25" s="5">
         <v>3</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -7529,22 +7729,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D26" s="5">
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -7552,22 +7752,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D27" s="5">
         <v>2</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -7575,22 +7775,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D28" s="5">
         <v>3</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -7598,22 +7798,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D29" s="5">
         <v>1</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -7621,22 +7821,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D30" s="5">
         <v>2</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -7644,22 +7844,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D31" s="5">
         <v>3</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -7667,22 +7867,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D32" s="5">
         <v>1</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -7690,22 +7890,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D33" s="5">
         <v>2</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -7713,22 +7913,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D34" s="5">
         <v>3</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -7736,22 +7936,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D35" s="5">
         <v>1</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -7759,22 +7959,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D36" s="5">
         <v>2</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -7782,22 +7982,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="D37" s="5">
         <v>3</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -7805,22 +8005,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="F38" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -7828,22 +8028,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D39" s="2">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="F39" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -7851,22 +8051,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="D40" s="2">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="F40" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -7874,22 +8074,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="F41" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -7897,22 +8097,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="D42" s="2">
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -7920,22 +8120,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="D43" s="2">
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="F43" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -7943,22 +8143,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="F44" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -7966,22 +8166,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="D45" s="2">
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="F45" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -7989,22 +8189,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="D46" s="2">
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="F46" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -8012,22 +8212,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="D47" s="2">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="F47" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -8035,22 +8235,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="D48" s="2">
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -8058,22 +8258,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="D49" s="2">
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -8081,22 +8281,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="F50" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -8104,22 +8304,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D51" s="2">
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="F51" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -8127,22 +8327,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="D52" s="2">
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="F52" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -8150,22 +8350,22 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="D53" s="2">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="F53" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -8173,22 +8373,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="D54" s="2">
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="F54" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -8196,22 +8396,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="D55" s="2">
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="F55" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -8219,22 +8419,22 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="D56" s="2">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="F56" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -8242,22 +8442,22 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="D57" s="2">
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="F57" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -8265,22 +8465,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="D58" s="2">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="F58" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -12394,13 +12594,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -12423,13 +12623,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -12443,13 +12643,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -12463,13 +12663,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -12483,13 +12683,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -12503,13 +12703,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -12523,13 +12723,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -12543,13 +12743,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -12563,13 +12763,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -12583,13 +12783,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -12603,13 +12803,13 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -12623,13 +12823,13 @@
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -12643,13 +12843,13 @@
         <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -12663,13 +12863,13 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -12683,13 +12883,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -12703,13 +12903,13 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -12723,13 +12923,13 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -12743,13 +12943,13 @@
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -12763,13 +12963,13 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -12783,13 +12983,13 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -12803,13 +13003,13 @@
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -12823,13 +13023,13 @@
         <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -12843,13 +13043,13 @@
         <v>22</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -12863,13 +13063,13 @@
         <v>23</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -12883,13 +13083,13 @@
         <v>24</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -12903,13 +13103,13 @@
         <v>25</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -12923,13 +13123,13 @@
         <v>26</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -12943,13 +13143,13 @@
         <v>27</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -12963,13 +13163,13 @@
         <v>28</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -12983,13 +13183,13 @@
         <v>29</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -13003,13 +13203,13 @@
         <v>30</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -13023,13 +13223,13 @@
         <v>31</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -13043,13 +13243,13 @@
         <v>32</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -13063,13 +13263,13 @@
         <v>33</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -13083,13 +13283,13 @@
         <v>34</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -13103,13 +13303,13 @@
         <v>35</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -13123,13 +13323,13 @@
         <v>36</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -13143,13 +13343,13 @@
         <v>1</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -13163,13 +13363,13 @@
         <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -13183,13 +13383,13 @@
         <v>3</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -13203,13 +13403,13 @@
         <v>4</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -13223,13 +13423,13 @@
         <v>5</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -13243,13 +13443,13 @@
         <v>6</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -13263,13 +13463,13 @@
         <v>7</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -13283,13 +13483,13 @@
         <v>8</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -13303,13 +13503,13 @@
         <v>9</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -13323,13 +13523,13 @@
         <v>10</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -13343,13 +13543,13 @@
         <v>11</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -13363,13 +13563,13 @@
         <v>12</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -13383,13 +13583,13 @@
         <v>7</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -13403,13 +13603,13 @@
         <v>8</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -13423,13 +13623,13 @@
         <v>9</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -13443,13 +13643,13 @@
         <v>19</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -13463,13 +13663,13 @@
         <v>20</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -13483,13 +13683,13 @@
         <v>21</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -13503,13 +13703,13 @@
         <v>22</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -13523,13 +13723,13 @@
         <v>23</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -13543,13 +13743,13 @@
         <v>24</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -13563,13 +13763,13 @@
         <v>25</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -13583,13 +13783,13 @@
         <v>26</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -13603,13 +13803,13 @@
         <v>27</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -13623,13 +13823,13 @@
         <v>1</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -13643,13 +13843,13 @@
         <v>2</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -13663,13 +13863,13 @@
         <v>3</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -13683,13 +13883,13 @@
         <v>37</v>
       </c>
       <c r="D65" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="E65" t="s">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -13703,13 +13903,13 @@
         <v>38</v>
       </c>
       <c r="D66" t="s">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c r="E66" t="s">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -13723,13 +13923,13 @@
         <v>39</v>
       </c>
       <c r="D67" t="s">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c r="E67" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -13743,13 +13943,13 @@
         <v>40</v>
       </c>
       <c r="D68" t="s">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c r="E68" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -13763,13 +13963,13 @@
         <v>41</v>
       </c>
       <c r="D69" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -13783,13 +13983,13 @@
         <v>42</v>
       </c>
       <c r="D70" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="E70" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -13803,13 +14003,13 @@
         <v>43</v>
       </c>
       <c r="D71" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="E71" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -13823,13 +14023,13 @@
         <v>44</v>
       </c>
       <c r="D72" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="E72" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -13843,13 +14043,13 @@
         <v>45</v>
       </c>
       <c r="D73" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="E73" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -13863,13 +14063,13 @@
         <v>46</v>
       </c>
       <c r="D74" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="E74" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -13883,13 +14083,13 @@
         <v>47</v>
       </c>
       <c r="D75" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="E75" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -13903,13 +14103,13 @@
         <v>48</v>
       </c>
       <c r="D76" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="E76" t="s">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -13923,13 +14123,13 @@
         <v>49</v>
       </c>
       <c r="D77" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="E77" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -13943,13 +14143,13 @@
         <v>50</v>
       </c>
       <c r="D78" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="E78" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -13963,13 +14163,13 @@
         <v>51</v>
       </c>
       <c r="D79" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="E79" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -13983,13 +14183,13 @@
         <v>52</v>
       </c>
       <c r="D80" t="s">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="E80" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -14003,13 +14203,13 @@
         <v>53</v>
       </c>
       <c r="D81" t="s">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="E81" t="s">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -14023,13 +14223,13 @@
         <v>54</v>
       </c>
       <c r="D82" t="s">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="E82" t="s">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -14043,13 +14243,13 @@
         <v>37</v>
       </c>
       <c r="D83" t="s">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="E83" t="s">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -14063,13 +14263,13 @@
         <v>38</v>
       </c>
       <c r="D84" t="s">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="E84" t="s">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -14083,13 +14283,13 @@
         <v>39</v>
       </c>
       <c r="D85" t="s">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="E85" t="s">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -14103,13 +14303,13 @@
         <v>55</v>
       </c>
       <c r="D86" t="s">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="E86" t="s">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -14123,13 +14323,13 @@
         <v>56</v>
       </c>
       <c r="D87" t="s">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="E87" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -14143,44 +14343,134 @@
         <v>57</v>
       </c>
       <c r="D88" t="s">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="E88" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="F89" s="4"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="F90" s="4"/>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="F91" s="4"/>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="F92" s="4"/>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="F93" s="4"/>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="F94" s="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="4">
+        <v>4</v>
+      </c>
+      <c r="C89" s="4">
+        <v>28</v>
+      </c>
+      <c r="D89" t="s">
+        <v>201</v>
+      </c>
+      <c r="E89" t="s">
+        <v>202</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="4">
+        <v>4</v>
+      </c>
+      <c r="C90" s="4">
+        <v>29</v>
+      </c>
+      <c r="D90" t="s">
+        <v>201</v>
+      </c>
+      <c r="E90" t="s">
+        <v>203</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="4">
+        <v>4</v>
+      </c>
+      <c r="C91" s="4">
+        <v>30</v>
+      </c>
+      <c r="D91" t="s">
+        <v>201</v>
+      </c>
+      <c r="E91" t="s">
+        <v>203</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="4">
+        <v>5</v>
+      </c>
+      <c r="C92" s="4">
+        <v>28</v>
+      </c>
+      <c r="D92" t="s">
+        <v>201</v>
+      </c>
+      <c r="E92" t="s">
+        <v>203</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4">
+        <v>5</v>
+      </c>
+      <c r="C93" s="4">
+        <v>29</v>
+      </c>
+      <c r="D93" t="s">
+        <v>201</v>
+      </c>
+      <c r="E93" t="s">
+        <v>203</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4">
+        <v>5</v>
+      </c>
+      <c r="C94" s="4">
+        <v>30</v>
+      </c>
+      <c r="D94" t="s">
+        <v>201</v>
+      </c>
+      <c r="E94" t="s">
+        <v>203</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" s="4"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="217">
   <si>
     <t>Language_id</t>
   </si>
@@ -34,10 +34,10 @@
     <t>US-en</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:15.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:24.000Z</t>
+    <t>2022-03-31T05:49:56.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:57:15.000Z</t>
   </si>
   <si>
     <t>active</t>
@@ -46,15 +46,21 @@
     <t>IN-kn</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:16.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:25.000Z</t>
+    <t>2022-03-31T05:49:57.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:57:16.000Z</t>
   </si>
   <si>
     <t>IN-hi</t>
   </si>
   <si>
+    <t>IN-ksn</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:57:17.000Z</t>
+  </si>
+  <si>
     <t>Page_id</t>
   </si>
   <si>
@@ -64,39 +70,33 @@
     <t>Login</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:17.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:26.000Z</t>
+    <t>2022-03-31T05:49:58.000Z</t>
   </si>
   <si>
     <t>Signup</t>
   </si>
   <si>
+    <t>2022-03-31T05:57:18.000Z</t>
+  </si>
+  <si>
     <t>Dashboard</t>
   </si>
   <si>
-    <t>2022-03-30T17:15:27.000Z</t>
+    <t>2022-03-31T05:49:59.000Z</t>
   </si>
   <si>
     <t>Upload</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:18.000Z</t>
-  </si>
-  <si>
     <t>Preview</t>
   </si>
   <si>
-    <t>2022-03-30T17:15:28.000Z</t>
+    <t>2022-03-31T05:57:19.000Z</t>
   </si>
   <si>
     <t>test</t>
   </si>
   <si>
-    <t>2022-03-30T12:14:27.000Z</t>
-  </si>
-  <si>
     <t>Label_id</t>
   </si>
   <si>
@@ -112,18 +112,24 @@
     <t>User Database</t>
   </si>
   <si>
+    <t>2022-03-31T05:50:00.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:57:20.000Z</t>
+  </si>
+  <si>
     <t>ಯೂಸರ್ ಡೇಟಾಬೇಸ್</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:19.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:29.000Z</t>
-  </si>
-  <si>
     <t>यूजर डेटाबेस</t>
   </si>
   <si>
+    <t>2022-03-31T05:50:01.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:57:21.000Z</t>
+  </si>
+  <si>
     <t>signUp</t>
   </si>
   <si>
@@ -133,37 +139,37 @@
     <t>ಸೈನ್ ಅಪ್</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:20.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:30.000Z</t>
-  </si>
-  <si>
     <t>सैन अप</t>
   </si>
   <si>
+    <t>2022-03-31T05:50:02.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:57:22.000Z</t>
+  </si>
+  <si>
     <t>userName</t>
   </si>
   <si>
     <t>User Name</t>
   </si>
   <si>
-    <t>2022-03-30T17:15:31.000Z</t>
-  </si>
-  <si>
     <t>ಯೂಸರ್ ನೇಮ್</t>
   </si>
   <si>
+    <t>2022-03-31T05:57:23.000Z</t>
+  </si>
+  <si>
     <t>यूजर नाम</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:21.000Z</t>
+    <t>2022-03-31T05:50:03.000Z</t>
   </si>
   <si>
     <t>password</t>
   </si>
   <si>
-    <t>2022-03-30T17:15:32.000Z</t>
+    <t>2022-03-31T05:57:24.000Z</t>
   </si>
   <si>
     <t>ಪಾಸ್ವರ್ಡ್</t>
@@ -172,75 +178,75 @@
     <t>पासवर्ड</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:22.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:33.000Z</t>
-  </si>
-  <si>
     <t>signIn</t>
   </si>
   <si>
     <t>Sign In</t>
   </si>
   <si>
+    <t>2022-03-31T05:50:04.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:57:25.000Z</t>
+  </si>
+  <si>
     <t>ಸೈನ್ ಇನ್</t>
   </si>
   <si>
     <t>सैन इन</t>
   </si>
   <si>
-    <t>2022-03-30T17:15:34.000Z</t>
+    <t>2022-03-31T05:50:05.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:57:26.000Z</t>
   </si>
   <si>
     <t>login</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:23.000Z</t>
-  </si>
-  <si>
     <t>ಲಾಗಿನ್</t>
   </si>
   <si>
-    <t>2022-03-30T17:15:35.000Z</t>
-  </si>
-  <si>
     <t>लॉगिन</t>
   </si>
   <si>
+    <t>2022-03-31T05:57:27.000Z</t>
+  </si>
+  <si>
     <t>firstName</t>
   </si>
   <si>
     <t>First Name</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:24.000Z</t>
+    <t>2022-03-31T05:50:06.000Z</t>
   </si>
   <si>
     <t>ಫಸ್ಟ್ ನೇಮ್</t>
   </si>
   <si>
-    <t>2022-03-30T17:15:36.000Z</t>
-  </si>
-  <si>
     <t>फर्स्ट नाम</t>
   </si>
   <si>
+    <t>2022-03-31T05:57:28.000Z</t>
+  </si>
+  <si>
     <t>lastName</t>
   </si>
   <si>
     <t>Last Name</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:25.000Z</t>
+    <t>2022-03-31T05:50:07.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:57:29.000Z</t>
   </si>
   <si>
     <t>ಲಾಸ್ಟ ನೇಮ್</t>
   </si>
   <si>
-    <t>2022-03-30T17:15:37.000Z</t>
-  </si>
-  <si>
     <t>लास्ट नाम</t>
   </si>
   <si>
@@ -250,18 +256,24 @@
     <t>Email</t>
   </si>
   <si>
+    <t>2022-03-31T05:50:08.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:57:30.000Z</t>
+  </si>
+  <si>
     <t>ಇಮೇಲ್</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:26.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:38.000Z</t>
-  </si>
-  <si>
     <t>ईमेल</t>
   </si>
   <si>
+    <t>2022-03-31T05:50:09.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:57:31.000Z</t>
+  </si>
+  <si>
     <t>logout</t>
   </si>
   <si>
@@ -271,15 +283,15 @@
     <t>ಲಾಗ್ಔಟ್</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:27.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:39.000Z</t>
+    <t>2022-03-31T05:57:32.000Z</t>
   </si>
   <si>
     <t>लॉगआउट</t>
   </si>
   <si>
+    <t>2022-03-31T05:50:10.000Z</t>
+  </si>
+  <si>
     <t>welcome</t>
   </si>
   <si>
@@ -289,31 +301,31 @@
     <t>ಸ್ವಾಗತ ಯೂಸರ್</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:28.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:40.000Z</t>
+    <t>2022-03-31T05:57:33.000Z</t>
   </si>
   <si>
     <t>स्वागत यूजर</t>
   </si>
   <si>
+    <t>2022-03-31T05:50:11.000Z</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>2022-03-31T05:57:34.000Z</t>
+  </si>
+  <si>
     <t>ಐಡೀ</t>
   </si>
   <si>
-    <t>2022-03-30T17:15:41.000Z</t>
-  </si>
-  <si>
     <t>आईडी</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:29.000Z</t>
+    <t>2022-03-31T05:50:12.000Z</t>
   </si>
   <si>
     <t>uploadFile</t>
@@ -322,7 +334,7 @@
     <t>Upload File</t>
   </si>
   <si>
-    <t>2022-03-30T17:15:42.000Z</t>
+    <t>2022-03-31T05:57:35.000Z</t>
   </si>
   <si>
     <t>ಫೈಲ್ ಅಪ್ಲೋಡ್</t>
@@ -331,7 +343,10 @@
     <t>फाइल अपलोड</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:30.000Z</t>
+    <t>2022-03-31T05:50:13.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:57:36.000Z</t>
   </si>
   <si>
     <t>instruction</t>
@@ -340,16 +355,16 @@
     <t>Please download the template and make changes to the same file before uploading it</t>
   </si>
   <si>
-    <t>2022-03-30T17:15:43.000Z</t>
-  </si>
-  <si>
     <t>ದಯವಿಟ್ಟು ಟೆಂಪ್ಲೇಟ್ ಅನ್ನು ಡೌನ್‌ಲೋಡ್ ಮಾಡಿ ಮತ್ತು ಅದನ್ನು ಅಪ್‌ಲೋಡ್ ಮಾಡುವ ಮೊದಲು ಅದೇ ಫೈಲ್‌ಗೆ ಬದಲಾವಣೆಗಳನ್ನು ಮಾಡಿ</t>
   </si>
   <si>
     <t>कृपया टेम्पलेट डाउनलोड करें और अपलोड करने से पहले उसी फ़ाइल में परिवर्तन करें</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:31.000Z</t>
+    <t>2022-03-31T05:50:14.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:57:37.000Z</t>
   </si>
   <si>
     <t>download</t>
@@ -358,43 +373,43 @@
     <t>DOWNLOAD</t>
   </si>
   <si>
-    <t>2022-03-30T17:15:44.000Z</t>
-  </si>
-  <si>
     <t>ಡೌನ್ಲೋಡ್</t>
   </si>
   <si>
+    <t>2022-03-31T05:57:38.000Z</t>
+  </si>
+  <si>
     <t>डाउनलोड</t>
   </si>
   <si>
+    <t>2022-03-31T05:50:15.000Z</t>
+  </si>
+  <si>
     <t>uploadExcelFile</t>
   </si>
   <si>
     <t>Upload Excel File</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:32.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:45.000Z</t>
-  </si>
-  <si>
     <t>ಎಕ್ಸೆಲ್ ಫೈಲ್ ಅನ್ನು ಅಪ್ಲೋಡ್ ಮಾಡಿ</t>
   </si>
   <si>
+    <t>2022-03-31T05:57:39.000Z</t>
+  </si>
+  <si>
     <t>एक्सेल फ़ाइल अपलोड करें</t>
   </si>
   <si>
-    <t>2022-03-30T17:15:46.000Z</t>
-  </si>
-  <si>
     <t>validation</t>
   </si>
   <si>
     <t>Make sure to upload the same template file which is edited and validated</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:33.000Z</t>
+    <t>2022-03-31T05:50:16.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:57:40.000Z</t>
   </si>
   <si>
     <t>ಸಂಪಾದಿಸಿದ ಮತ್ತು ಮೌಲ್ಯೀಕರಿಸಿದ ಅದೇ ಟೆಂಪ್ಲೇಟ್ ಫೈಲ್ ಅನ್ನು ಅಪ್‌ಲೋಡ್ ಮಾಡಲು ಖಚಿತಪಡಿಸಿಕೊಳ್ಳಿ</t>
@@ -403,7 +418,7 @@
     <t>उसी टेम्पलेट फ़ाइल को अपलोड करना सुनिश्चित करें जो संपादित और मान्य है</t>
   </si>
   <si>
-    <t>2022-03-30T17:15:47.000Z</t>
+    <t>2022-03-31T05:57:41.000Z</t>
   </si>
   <si>
     <t>submit</t>
@@ -412,16 +427,16 @@
     <t>SUBMIT</t>
   </si>
   <si>
+    <t>2022-03-31T05:50:17.000Z</t>
+  </si>
+  <si>
     <t>ಅಪ್ಲೋಡ್</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:35.000Z</t>
-  </si>
-  <si>
     <t>अपलोड</t>
   </si>
   <si>
-    <t>2022-03-30T17:15:48.000Z</t>
+    <t>2022-03-31T05:57:42.000Z</t>
   </si>
   <si>
     <t>message</t>
@@ -433,199 +448,223 @@
     <t>ಫೈಲ್ ಅನ್ನು ಯಶಸ್ವಿಯಾಗಿ ಅಪ್‌ಲೋಡ್ ಮಾಡಲಾಗಿದೆ</t>
   </si>
   <si>
-    <t>2022-03-30T17:15:49.000Z</t>
+    <t>2022-03-31T05:50:18.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:57:43.000Z</t>
   </si>
   <si>
     <t>फ़ाइल सफलतापूर्वक अपलोड कर दी गई है</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:36.000Z</t>
-  </si>
-  <si>
     <t>Page_map_id</t>
   </si>
   <si>
-    <t>2022-03-30T17:15:50.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:37.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:51.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:38.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:52.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:53.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:39.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:54.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:40.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:55.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:41.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:56.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:42.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:57.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:58.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:43.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:59.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:44.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:00.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:01.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:45.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:02.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:46.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:03.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:47.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:04.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:48.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:05.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:49.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:06.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:50.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:07.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:51.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:08.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:09.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:52.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:10.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:53.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:11.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:54.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:12.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:55.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:13.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:14.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:56.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:15.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:57.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:58.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:16.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:59.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:17.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:18.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:04:00.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:19.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:04:01.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:20.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:04:02.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:21.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:04:03.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:22.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:23.000Z</t>
+    <t>2022-03-31T05:50:19.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:57:44.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:20.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:57:45.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:21.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:57:46.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:22.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:57:47.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:57:48.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:23.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:57:49.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:24.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:57:50.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:25.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:57:51.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:57:52.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:26.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:57:53.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:27.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:57:54.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:28.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:57:55.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:29.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:57:56.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:57:57.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:30.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:57:58.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:31.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:57:59.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:32.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:58:00.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:58:01.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:33.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:34.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:58:02.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:58:03.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:35.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:58:04.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:36.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:58:05.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:37.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:58:06.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:38.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:58:07.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:39.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:58:08.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:58:09.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:40.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:58:10.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:41.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:58:11.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:42.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:58:12.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:58:13.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:43.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:58:14.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:44.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:58:15.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:45.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:58:16.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:46.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:58:17.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:58:18.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:47.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:58:19.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:48.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:58:20.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:49.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:58:21.000Z</t>
   </si>
 </sst>
 </file>
@@ -1006,8 +1045,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E5" s="4"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E6" s="4"/>
@@ -4025,10 +4078,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -4045,13 +4098,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>8</v>
@@ -4062,13 +4115,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>8</v>
@@ -4079,10 +4132,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>20</v>
@@ -4096,7 +4149,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -4113,13 +4166,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>8</v>
@@ -4130,13 +4183,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>8</v>
@@ -7186,10 +7239,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>8</v>
@@ -7203,16 +7256,16 @@
         <v>30</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" s="5">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>8</v>
@@ -7232,10 +7285,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>8</v>
@@ -7246,19 +7299,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>8</v>
@@ -7269,19 +7322,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>8</v>
@@ -7292,7 +7345,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>41</v>
@@ -7301,10 +7354,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>8</v>
@@ -7315,19 +7368,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>8</v>
@@ -7338,19 +7391,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="5">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>8</v>
@@ -7361,19 +7414,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D10" s="5">
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>8</v>
@@ -7384,19 +7437,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>8</v>
@@ -7407,19 +7460,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D12" s="5">
         <v>2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>8</v>
@@ -7430,19 +7483,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D13" s="5">
         <v>3</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>8</v>
@@ -7462,10 +7515,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>8</v>
@@ -7479,16 +7532,16 @@
         <v>54</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D15" s="5">
         <v>2</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>8</v>
@@ -7502,16 +7555,16 @@
         <v>54</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D16" s="5">
         <v>3</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>8</v>
@@ -7522,10 +7575,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17" s="5">
         <v>1</v>
@@ -7534,7 +7587,7 @@
         <v>60</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>8</v>
@@ -7545,10 +7598,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D18" s="5">
         <v>2</v>
@@ -7557,7 +7610,7 @@
         <v>60</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>8</v>
@@ -7568,10 +7621,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D19" s="5">
         <v>3</v>
@@ -7580,7 +7633,7 @@
         <v>60</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>8</v>
@@ -7591,19 +7644,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>8</v>
@@ -7614,19 +7667,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D21" s="5">
         <v>2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>8</v>
@@ -7637,19 +7690,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="5">
         <v>3</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>8</v>
@@ -7660,19 +7713,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D23" s="5">
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>8</v>
@@ -7683,19 +7736,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D24" s="5">
         <v>2</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>8</v>
@@ -7706,19 +7759,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="5">
         <v>3</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>8</v>
@@ -7729,19 +7782,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" s="5">
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>8</v>
@@ -7752,19 +7805,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D27" s="5">
         <v>2</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>8</v>
@@ -7775,19 +7828,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D28" s="5">
         <v>3</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>8</v>
@@ -7798,19 +7851,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D29" s="5">
         <v>1</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>8</v>
@@ -7821,19 +7874,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D30" s="5">
         <v>2</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>8</v>
@@ -7844,19 +7897,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D31" s="5">
         <v>3</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>8</v>
@@ -7867,19 +7920,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D32" s="5">
         <v>1</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>8</v>
@@ -7890,10 +7943,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D33" s="5">
         <v>2</v>
@@ -7902,7 +7955,7 @@
         <v>91</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>8</v>
@@ -7913,19 +7966,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D34" s="5">
         <v>3</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>8</v>
@@ -7936,19 +7989,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D35" s="5">
         <v>1</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>8</v>
@@ -7959,19 +8012,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D36" s="5">
         <v>2</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>8</v>
@@ -7982,19 +8035,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D37" s="5">
         <v>3</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>8</v>
@@ -8005,19 +8058,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F38" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>8</v>
@@ -8028,19 +8081,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D39" s="2">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F39" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>8</v>
@@ -8051,19 +8104,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D40" s="2">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F40" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>8</v>
@@ -8074,19 +8127,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F41" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>8</v>
@@ -8097,19 +8150,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D42" s="2">
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F42" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>8</v>
@@ -8120,19 +8173,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D43" s="2">
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F43" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>8</v>
@@ -8143,19 +8196,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F44" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>8</v>
@@ -8166,19 +8219,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D45" s="2">
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F45" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>8</v>
@@ -8189,19 +8242,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D46" s="2">
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="F46" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>8</v>
@@ -8212,16 +8265,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D47" s="2">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F47" t="s">
         <v>120</v>
@@ -8235,19 +8288,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D48" s="2">
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F48" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>8</v>
@@ -8258,19 +8311,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D49" s="2">
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F49" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>8</v>
@@ -8281,19 +8334,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F50" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>8</v>
@@ -8304,19 +8357,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D51" s="2">
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F51" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>8</v>
@@ -8327,19 +8380,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D52" s="2">
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F52" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>8</v>
@@ -8350,19 +8403,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D53" s="2">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F53" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>8</v>
@@ -8373,19 +8426,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D54" s="2">
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F54" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>8</v>
@@ -8396,19 +8449,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D55" s="2">
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F55" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>8</v>
@@ -8419,19 +8472,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D56" s="2">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F56" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>8</v>
@@ -8442,19 +8495,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D57" s="2">
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="F57" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>8</v>
@@ -8465,19 +8518,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D58" s="2">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F58" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>8</v>
@@ -12594,10 +12647,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>27</v>
@@ -12623,10 +12676,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>8</v>
@@ -12643,10 +12696,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>8</v>
@@ -12663,10 +12716,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>8</v>
@@ -12683,10 +12736,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>8</v>
@@ -12703,10 +12756,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>8</v>
@@ -12723,10 +12776,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>8</v>
@@ -12743,10 +12796,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>8</v>
@@ -12763,10 +12816,10 @@
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>8</v>
@@ -12783,10 +12836,10 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>8</v>
@@ -12803,10 +12856,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>8</v>
@@ -12823,10 +12876,10 @@
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>8</v>
@@ -12843,10 +12896,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>8</v>
@@ -12863,10 +12916,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>8</v>
@@ -12883,10 +12936,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>8</v>
@@ -12903,10 +12956,10 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>8</v>
@@ -12923,10 +12976,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>8</v>
@@ -12943,10 +12996,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>8</v>
@@ -12963,10 +13016,10 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>8</v>
@@ -12983,10 +13036,10 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>8</v>
@@ -13003,10 +13056,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>8</v>
@@ -13023,10 +13076,10 @@
         <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>8</v>
@@ -13043,10 +13096,10 @@
         <v>22</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>8</v>
@@ -13063,10 +13116,10 @@
         <v>23</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>8</v>
@@ -13083,10 +13136,10 @@
         <v>24</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>8</v>
@@ -13103,10 +13156,10 @@
         <v>25</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>8</v>
@@ -13123,10 +13176,10 @@
         <v>26</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>8</v>
@@ -13143,10 +13196,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>8</v>
@@ -13163,10 +13216,10 @@
         <v>28</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>8</v>
@@ -13183,10 +13236,10 @@
         <v>29</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>8</v>
@@ -13203,10 +13256,10 @@
         <v>30</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>8</v>
@@ -13223,10 +13276,10 @@
         <v>31</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>8</v>
@@ -13243,10 +13296,10 @@
         <v>32</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>8</v>
@@ -13263,10 +13316,10 @@
         <v>33</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>8</v>
@@ -13283,10 +13336,10 @@
         <v>34</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>8</v>
@@ -13303,10 +13356,10 @@
         <v>35</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>8</v>
@@ -13323,10 +13376,10 @@
         <v>36</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>8</v>
@@ -13343,10 +13396,10 @@
         <v>1</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>8</v>
@@ -13363,10 +13416,10 @@
         <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>8</v>
@@ -13383,10 +13436,10 @@
         <v>3</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>8</v>
@@ -13403,10 +13456,10 @@
         <v>4</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>8</v>
@@ -13423,10 +13476,10 @@
         <v>5</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>8</v>
@@ -13443,10 +13496,10 @@
         <v>6</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>8</v>
@@ -13463,10 +13516,10 @@
         <v>7</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>8</v>
@@ -13483,10 +13536,10 @@
         <v>8</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>8</v>
@@ -13503,10 +13556,10 @@
         <v>9</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>8</v>
@@ -13523,10 +13576,10 @@
         <v>10</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>8</v>
@@ -13543,10 +13596,10 @@
         <v>11</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>8</v>
@@ -13563,10 +13616,10 @@
         <v>12</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>8</v>
@@ -13583,10 +13636,10 @@
         <v>7</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>8</v>
@@ -13603,10 +13656,10 @@
         <v>8</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>8</v>
@@ -13623,10 +13676,10 @@
         <v>9</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>8</v>
@@ -13643,10 +13696,10 @@
         <v>19</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>8</v>
@@ -13663,10 +13716,10 @@
         <v>20</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>8</v>
@@ -13683,10 +13736,10 @@
         <v>21</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>8</v>
@@ -13703,10 +13756,10 @@
         <v>22</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>8</v>
@@ -13723,10 +13776,10 @@
         <v>23</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>8</v>
@@ -13743,10 +13796,10 @@
         <v>24</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>8</v>
@@ -13763,10 +13816,10 @@
         <v>25</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>8</v>
@@ -13783,10 +13836,10 @@
         <v>26</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>8</v>
@@ -13803,10 +13856,10 @@
         <v>27</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>8</v>
@@ -13823,10 +13876,10 @@
         <v>1</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>8</v>
@@ -13843,10 +13896,10 @@
         <v>2</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>8</v>
@@ -13863,10 +13916,10 @@
         <v>3</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>8</v>
@@ -13883,10 +13936,10 @@
         <v>37</v>
       </c>
       <c r="D65" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E65" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>8</v>
@@ -13903,10 +13956,10 @@
         <v>38</v>
       </c>
       <c r="D66" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E66" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>8</v>
@@ -13923,10 +13976,10 @@
         <v>39</v>
       </c>
       <c r="D67" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E67" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>8</v>
@@ -13943,10 +13996,10 @@
         <v>40</v>
       </c>
       <c r="D68" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E68" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>8</v>
@@ -13963,10 +14016,10 @@
         <v>41</v>
       </c>
       <c r="D69" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E69" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>8</v>
@@ -13983,10 +14036,10 @@
         <v>42</v>
       </c>
       <c r="D70" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E70" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>8</v>
@@ -14003,10 +14056,10 @@
         <v>43</v>
       </c>
       <c r="D71" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E71" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>8</v>
@@ -14023,10 +14076,10 @@
         <v>44</v>
       </c>
       <c r="D72" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="E72" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>8</v>
@@ -14043,10 +14096,10 @@
         <v>45</v>
       </c>
       <c r="D73" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E73" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>8</v>
@@ -14063,10 +14116,10 @@
         <v>46</v>
       </c>
       <c r="D74" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E74" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>8</v>
@@ -14083,10 +14136,10 @@
         <v>47</v>
       </c>
       <c r="D75" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="E75" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>8</v>
@@ -14103,10 +14156,10 @@
         <v>48</v>
       </c>
       <c r="D76" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="E76" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>8</v>
@@ -14123,10 +14176,10 @@
         <v>49</v>
       </c>
       <c r="D77" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E77" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>8</v>
@@ -14143,10 +14196,10 @@
         <v>50</v>
       </c>
       <c r="D78" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E78" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>8</v>
@@ -14163,10 +14216,10 @@
         <v>51</v>
       </c>
       <c r="D79" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E79" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>8</v>
@@ -14183,10 +14236,10 @@
         <v>52</v>
       </c>
       <c r="D80" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E80" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>8</v>
@@ -14203,10 +14256,10 @@
         <v>53</v>
       </c>
       <c r="D81" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="E81" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>8</v>
@@ -14223,10 +14276,10 @@
         <v>54</v>
       </c>
       <c r="D82" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="E82" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>8</v>
@@ -14243,10 +14296,10 @@
         <v>37</v>
       </c>
       <c r="D83" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="E83" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>8</v>
@@ -14263,10 +14316,10 @@
         <v>38</v>
       </c>
       <c r="D84" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="E84" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>8</v>
@@ -14283,10 +14336,10 @@
         <v>39</v>
       </c>
       <c r="D85" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="E85" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>8</v>
@@ -14303,10 +14356,10 @@
         <v>55</v>
       </c>
       <c r="D86" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="E86" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>8</v>
@@ -14323,10 +14376,10 @@
         <v>56</v>
       </c>
       <c r="D87" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="E87" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>8</v>
@@ -14343,10 +14396,10 @@
         <v>57</v>
       </c>
       <c r="D88" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="E88" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>8</v>
@@ -14363,10 +14416,10 @@
         <v>28</v>
       </c>
       <c r="D89" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="E89" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>8</v>
@@ -14383,10 +14436,10 @@
         <v>29</v>
       </c>
       <c r="D90" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="E90" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>8</v>
@@ -14403,10 +14456,10 @@
         <v>30</v>
       </c>
       <c r="D91" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="E91" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>8</v>
@@ -14423,10 +14476,10 @@
         <v>28</v>
       </c>
       <c r="D92" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="E92" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>8</v>
@@ -14443,10 +14496,10 @@
         <v>29</v>
       </c>
       <c r="D93" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="E93" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>8</v>
@@ -14463,10 +14516,10 @@
         <v>30</v>
       </c>
       <c r="D94" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="E94" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>8</v>

--- a/template.xlsx
+++ b/template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="97">
   <si>
     <t>Language_id</t>
   </si>
@@ -34,25 +34,19 @@
     <t>US-en</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:15.000Z</t>
+    <t>active</t>
   </si>
   <si>
-    <t>2022-03-30T17:15:24.000Z</t>
-  </si>
-  <si>
-    <t>active</t>
+    <t/>
   </si>
   <si>
     <t>IN-kn</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:16.000Z</t>
+    <t>IN-hi</t>
   </si>
   <si>
-    <t>2022-03-30T17:15:25.000Z</t>
-  </si>
-  <si>
-    <t>IN-hi</t>
+    <t>IN-ksn</t>
   </si>
   <si>
     <t>Page_id</t>
@@ -64,37 +58,19 @@
     <t>Login</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:17.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:26.000Z</t>
-  </si>
-  <si>
     <t>Signup</t>
   </si>
   <si>
     <t>Dashboard</t>
   </si>
   <si>
-    <t>2022-03-30T17:15:27.000Z</t>
-  </si>
-  <si>
     <t>Upload</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:18.000Z</t>
   </si>
   <si>
     <t>Preview</t>
   </si>
   <si>
-    <t>2022-03-30T17:15:28.000Z</t>
-  </si>
-  <si>
     <t>test</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:14:27.000Z</t>
   </si>
   <si>
     <t>Label_id</t>
@@ -115,12 +91,6 @@
     <t>ಯೂಸರ್ ಡೇಟಾಬೇಸ್</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:19.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:29.000Z</t>
-  </si>
-  <si>
     <t>यूजर डेटाबेस</t>
   </si>
   <si>
@@ -133,12 +103,6 @@
     <t>ಸೈನ್ ಅಪ್</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:20.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:30.000Z</t>
-  </si>
-  <si>
     <t>सैन अप</t>
   </si>
   <si>
@@ -148,34 +112,19 @@
     <t>User Name</t>
   </si>
   <si>
-    <t>2022-03-30T17:15:31.000Z</t>
-  </si>
-  <si>
     <t>ಯೂಸರ್ ನೇಮ್</t>
   </si>
   <si>
     <t>यूजर नाम</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:21.000Z</t>
-  </si>
-  <si>
     <t>password</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:32.000Z</t>
   </si>
   <si>
     <t>ಪಾಸ್ವರ್ಡ್</t>
   </si>
   <si>
     <t>पासवर्ड</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:22.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:33.000Z</t>
   </si>
   <si>
     <t>signIn</t>
@@ -190,19 +139,10 @@
     <t>सैन इन</t>
   </si>
   <si>
-    <t>2022-03-30T17:15:34.000Z</t>
-  </si>
-  <si>
     <t>login</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:23.000Z</t>
-  </si>
-  <si>
     <t>ಲಾಗಿನ್</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:35.000Z</t>
   </si>
   <si>
     <t>लॉगिन</t>
@@ -214,13 +154,7 @@
     <t>First Name</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:24.000Z</t>
-  </si>
-  <si>
     <t>ಫಸ್ಟ್ ನೇಮ್</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:36.000Z</t>
   </si>
   <si>
     <t>फर्स्ट नाम</t>
@@ -232,13 +166,7 @@
     <t>Last Name</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:25.000Z</t>
-  </si>
-  <si>
     <t>ಲಾಸ್ಟ ನೇಮ್</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:37.000Z</t>
   </si>
   <si>
     <t>लास्ट नाम</t>
@@ -253,12 +181,6 @@
     <t>ಇಮೇಲ್</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:26.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:38.000Z</t>
-  </si>
-  <si>
     <t>ईमेल</t>
   </si>
   <si>
@@ -269,12 +191,6 @@
   </si>
   <si>
     <t>ಲಾಗ್ಔಟ್</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:27.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:39.000Z</t>
   </si>
   <si>
     <t>लॉगआउट</t>
@@ -289,12 +205,6 @@
     <t>ಸ್ವಾಗತ ಯೂಸರ್</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:28.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:40.000Z</t>
-  </si>
-  <si>
     <t>स्वागत यूजर</t>
   </si>
   <si>
@@ -307,13 +217,7 @@
     <t>ಐಡೀ</t>
   </si>
   <si>
-    <t>2022-03-30T17:15:41.000Z</t>
-  </si>
-  <si>
     <t>आईडी</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:29.000Z</t>
   </si>
   <si>
     <t>uploadFile</t>
@@ -322,16 +226,10 @@
     <t>Upload File</t>
   </si>
   <si>
-    <t>2022-03-30T17:15:42.000Z</t>
-  </si>
-  <si>
     <t>ಫೈಲ್ ಅಪ್ಲೋಡ್</t>
   </si>
   <si>
     <t>फाइल अपलोड</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:30.000Z</t>
   </si>
   <si>
     <t>instruction</t>
@@ -340,25 +238,16 @@
     <t>Please download the template and make changes to the same file before uploading it</t>
   </si>
   <si>
-    <t>2022-03-30T17:15:43.000Z</t>
-  </si>
-  <si>
     <t>ದಯವಿಟ್ಟು ಟೆಂಪ್ಲೇಟ್ ಅನ್ನು ಡೌನ್‌ಲೋಡ್ ಮಾಡಿ ಮತ್ತು ಅದನ್ನು ಅಪ್‌ಲೋಡ್ ಮಾಡುವ ಮೊದಲು ಅದೇ ಫೈಲ್‌ಗೆ ಬದಲಾವಣೆಗಳನ್ನು ಮಾಡಿ</t>
   </si>
   <si>
     <t>कृपया टेम्पलेट डाउनलोड करें और अपलोड करने से पहले उसी फ़ाइल में परिवर्तन करें</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:31.000Z</t>
-  </si>
-  <si>
     <t>download</t>
   </si>
   <si>
     <t>DOWNLOAD</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:44.000Z</t>
   </si>
   <si>
     <t>ಡೌನ್ಲೋಡ್</t>
@@ -373,19 +262,10 @@
     <t>Upload Excel File</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:32.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:45.000Z</t>
-  </si>
-  <si>
     <t>ಎಕ್ಸೆಲ್ ಫೈಲ್ ಅನ್ನು ಅಪ್ಲೋಡ್ ಮಾಡಿ</t>
   </si>
   <si>
     <t>एक्सेल फ़ाइल अपलोड करें</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:46.000Z</t>
   </si>
   <si>
     <t>validation</t>
@@ -394,16 +274,10 @@
     <t>Make sure to upload the same template file which is edited and validated</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:33.000Z</t>
-  </si>
-  <si>
     <t>ಸಂಪಾದಿಸಿದ ಮತ್ತು ಮೌಲ್ಯೀಕರಿಸಿದ ಅದೇ ಟೆಂಪ್ಲೇಟ್ ಫೈಲ್ ಅನ್ನು ಅಪ್‌ಲೋಡ್ ಮಾಡಲು ಖಚಿತಪಡಿಸಿಕೊಳ್ಳಿ</t>
   </si>
   <si>
     <t>उसी टेम्पलेट फ़ाइल को अपलोड करना सुनिश्चित करें जो संपादित और मान्य है</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:47.000Z</t>
   </si>
   <si>
     <t>submit</t>
@@ -415,13 +289,7 @@
     <t>ಅಪ್ಲೋಡ್</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:35.000Z</t>
-  </si>
-  <si>
     <t>अपलोड</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:48.000Z</t>
   </si>
   <si>
     <t>message</t>
@@ -433,199 +301,10 @@
     <t>ಫೈಲ್ ಅನ್ನು ಯಶಸ್ವಿಯಾಗಿ ಅಪ್‌ಲೋಡ್ ಮಾಡಲಾಗಿದೆ</t>
   </si>
   <si>
-    <t>2022-03-30T17:15:49.000Z</t>
-  </si>
-  <si>
     <t>फ़ाइल सफलतापूर्वक अपलोड कर दी गई है</t>
   </si>
   <si>
-    <t>2022-03-30T12:03:36.000Z</t>
-  </si>
-  <si>
     <t>Page_map_id</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:50.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:37.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:51.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:38.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:52.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:53.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:39.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:54.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:40.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:55.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:41.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:56.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:42.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:57.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:58.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:43.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:15:59.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:44.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:00.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:01.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:45.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:02.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:46.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:03.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:47.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:04.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:48.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:05.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:49.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:06.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:50.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:07.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:51.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:08.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:09.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:52.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:10.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:53.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:11.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:54.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:12.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:55.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:13.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:14.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:56.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:15.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:57.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:58.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:16.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:03:59.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:17.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:18.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:04:00.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:19.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:04:01.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:20.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:04:02.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:21.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T12:04:03.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:22.000Z</t>
-  </si>
-  <si>
-    <t>2022-03-30T17:16:23.000Z</t>
   </si>
 </sst>
 </file>
@@ -969,7 +648,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -977,16 +656,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -994,19 +673,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="5:5" x14ac:dyDescent="0.25">
@@ -4025,10 +3713,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -4045,16 +3733,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4062,16 +3750,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4079,16 +3767,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4096,16 +3784,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4113,16 +3801,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4130,16 +3818,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="5:5" x14ac:dyDescent="0.25">
@@ -7151,13 +6839,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -7177,22 +6865,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -7200,22 +6888,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D3" s="5">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -7223,22 +6911,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D4" s="5">
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -7246,22 +6934,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -7269,22 +6957,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -7292,22 +6980,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D7" s="5">
         <v>3</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -7315,22 +7003,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -7338,22 +7026,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D9" s="5">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -7361,22 +7049,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D10" s="5">
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -7384,22 +7072,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -7407,22 +7095,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D12" s="5">
         <v>2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -7430,22 +7118,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D13" s="5">
         <v>3</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -7453,22 +7141,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -7476,22 +7164,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D15" s="5">
         <v>2</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -7499,22 +7187,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D16" s="5">
         <v>3</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -7522,22 +7210,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17" s="5">
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -7545,22 +7233,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D18" s="5">
         <v>2</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -7568,22 +7256,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D19" s="5">
         <v>3</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -7591,22 +7279,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -7614,22 +7302,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D21" s="5">
         <v>2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -7637,22 +7325,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D22" s="5">
         <v>3</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -7660,22 +7348,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="D23" s="5">
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -7683,22 +7371,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="D24" s="5">
         <v>2</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -7706,22 +7394,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="D25" s="5">
         <v>3</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -7729,22 +7417,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D26" s="5">
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -7752,22 +7440,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="D27" s="5">
         <v>2</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -7775,22 +7463,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="D28" s="5">
         <v>3</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -7798,22 +7486,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="D29" s="5">
         <v>1</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -7821,22 +7509,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D30" s="5">
         <v>2</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -7844,22 +7532,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="D31" s="5">
         <v>3</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -7867,22 +7555,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="D32" s="5">
         <v>1</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -7890,22 +7578,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="D33" s="5">
         <v>2</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -7913,22 +7601,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="D34" s="5">
         <v>3</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -7936,22 +7624,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="D35" s="5">
         <v>1</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -7959,22 +7647,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="D36" s="5">
         <v>2</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -7982,22 +7670,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="D37" s="5">
         <v>3</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -8005,22 +7693,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -8028,22 +7716,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="D39" s="2">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -8051,22 +7739,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="D40" s="2">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="F40" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -8074,22 +7762,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -8097,22 +7785,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="D42" s="2">
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -8120,22 +7808,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="D43" s="2">
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -8143,22 +7831,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -8166,22 +7854,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="D45" s="2">
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -8189,22 +7877,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2">
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -8212,22 +7900,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="D47" s="2">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -8235,22 +7923,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="D48" s="2">
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -8258,22 +7946,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="D49" s="2">
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="F49" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -8281,22 +7969,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="F50" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -8304,22 +7992,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="D51" s="2">
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="F51" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -8327,22 +8015,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="D52" s="2">
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -8350,22 +8038,22 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="D53" s="2">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="F53" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -8373,22 +8061,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="D54" s="2">
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="F54" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -8396,22 +8084,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="D55" s="2">
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="F55" t="s">
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -8419,22 +8107,22 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="D56" s="2">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="F56" t="s">
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -8442,22 +8130,22 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="D57" s="2">
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="F57" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -8465,22 +8153,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="D58" s="2">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>141</v>
+        <v>6</v>
       </c>
       <c r="F58" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -12594,13 +12282,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -12623,13 +12311,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>141</v>
+        <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -12643,13 +12331,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>141</v>
+        <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -12663,13 +12351,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -12683,13 +12371,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>145</v>
+        <v>7</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -12703,13 +12391,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>145</v>
+        <v>7</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -12723,13 +12411,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>146</v>
+        <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>145</v>
+        <v>7</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -12743,13 +12431,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>146</v>
+        <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -12763,13 +12451,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>146</v>
+        <v>6</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -12783,13 +12471,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>146</v>
+        <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>148</v>
+        <v>7</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -12803,13 +12491,13 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>149</v>
+        <v>6</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>148</v>
+        <v>7</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -12823,13 +12511,13 @@
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>149</v>
+        <v>6</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -12843,13 +12531,13 @@
         <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>149</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -12863,13 +12551,13 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>151</v>
+        <v>6</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -12883,13 +12571,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>151</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -12903,13 +12591,13 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>151</v>
+        <v>6</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -12923,13 +12611,13 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>154</v>
+        <v>7</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -12943,13 +12631,13 @@
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>154</v>
+        <v>7</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -12963,13 +12651,13 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>154</v>
+        <v>7</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -12983,13 +12671,13 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>155</v>
+        <v>6</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>156</v>
+        <v>7</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -13003,13 +12691,13 @@
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>155</v>
+        <v>6</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>156</v>
+        <v>7</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -13023,13 +12711,13 @@
         <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>155</v>
+        <v>6</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>157</v>
+        <v>7</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -13043,13 +12731,13 @@
         <v>22</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>155</v>
+        <v>6</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>157</v>
+        <v>7</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -13063,13 +12751,13 @@
         <v>23</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>158</v>
+        <v>6</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>157</v>
+        <v>7</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -13083,13 +12771,13 @@
         <v>24</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>158</v>
+        <v>6</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -13103,13 +12791,13 @@
         <v>25</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>158</v>
+        <v>6</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -13123,13 +12811,13 @@
         <v>26</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>160</v>
+        <v>6</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -13143,13 +12831,13 @@
         <v>27</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>160</v>
+        <v>6</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -13163,13 +12851,13 @@
         <v>28</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>160</v>
+        <v>6</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -13183,13 +12871,13 @@
         <v>29</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>160</v>
+        <v>6</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>162</v>
+        <v>7</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -13203,13 +12891,13 @@
         <v>30</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>163</v>
+        <v>6</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>162</v>
+        <v>7</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -13223,13 +12911,13 @@
         <v>31</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>163</v>
+        <v>6</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>162</v>
+        <v>7</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -13243,13 +12931,13 @@
         <v>32</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>163</v>
+        <v>6</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>164</v>
+        <v>7</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -13263,13 +12951,13 @@
         <v>33</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>165</v>
+        <v>6</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>164</v>
+        <v>7</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -13283,13 +12971,13 @@
         <v>34</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>165</v>
+        <v>6</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>166</v>
+        <v>7</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -13303,13 +12991,13 @@
         <v>35</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>165</v>
+        <v>6</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>166</v>
+        <v>7</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -13323,13 +13011,13 @@
         <v>36</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>166</v>
+        <v>7</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -13343,13 +13031,13 @@
         <v>1</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>168</v>
+        <v>7</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -13363,13 +13051,13 @@
         <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>168</v>
+        <v>7</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -13383,13 +13071,13 @@
         <v>3</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>169</v>
+        <v>6</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>168</v>
+        <v>7</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -13403,13 +13091,13 @@
         <v>4</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>169</v>
+        <v>6</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -13423,13 +13111,13 @@
         <v>5</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>171</v>
+        <v>6</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -13443,13 +13131,13 @@
         <v>6</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>171</v>
+        <v>6</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -13463,13 +13151,13 @@
         <v>7</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>171</v>
+        <v>6</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -13483,13 +13171,13 @@
         <v>8</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>171</v>
+        <v>6</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -13503,13 +13191,13 @@
         <v>9</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>173</v>
+        <v>6</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -13523,13 +13211,13 @@
         <v>10</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>173</v>
+        <v>6</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>174</v>
+        <v>7</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -13543,13 +13231,13 @@
         <v>11</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>173</v>
+        <v>6</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>174</v>
+        <v>7</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -13563,13 +13251,13 @@
         <v>12</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>176</v>
+        <v>7</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -13583,13 +13271,13 @@
         <v>7</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>176</v>
+        <v>7</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -13603,13 +13291,13 @@
         <v>8</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>176</v>
+        <v>7</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -13623,13 +13311,13 @@
         <v>9</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -13643,13 +13331,13 @@
         <v>19</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>178</v>
+        <v>6</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -13663,13 +13351,13 @@
         <v>20</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>178</v>
+        <v>6</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -13683,13 +13371,13 @@
         <v>21</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>180</v>
+        <v>6</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -13703,13 +13391,13 @@
         <v>22</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>180</v>
+        <v>6</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -13723,13 +13411,13 @@
         <v>23</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>180</v>
+        <v>6</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>181</v>
+        <v>7</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -13743,13 +13431,13 @@
         <v>24</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>180</v>
+        <v>6</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>181</v>
+        <v>7</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -13763,13 +13451,13 @@
         <v>25</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>182</v>
+        <v>6</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>183</v>
+        <v>7</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -13783,13 +13471,13 @@
         <v>26</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>182</v>
+        <v>6</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>183</v>
+        <v>7</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -13803,13 +13491,13 @@
         <v>27</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>182</v>
+        <v>6</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>183</v>
+        <v>7</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -13823,13 +13511,13 @@
         <v>1</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>184</v>
+        <v>6</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>185</v>
+        <v>7</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -13843,13 +13531,13 @@
         <v>2</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>184</v>
+        <v>6</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>185</v>
+        <v>7</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -13863,13 +13551,13 @@
         <v>3</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>184</v>
+        <v>6</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>185</v>
+        <v>7</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -13883,13 +13571,13 @@
         <v>37</v>
       </c>
       <c r="D65" t="s">
-        <v>184</v>
+        <v>6</v>
       </c>
       <c r="E65" t="s">
-        <v>186</v>
+        <v>7</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -13903,13 +13591,13 @@
         <v>38</v>
       </c>
       <c r="D66" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
       <c r="E66" t="s">
-        <v>186</v>
+        <v>7</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -13923,13 +13611,13 @@
         <v>39</v>
       </c>
       <c r="D67" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
       <c r="E67" t="s">
-        <v>188</v>
+        <v>7</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -13943,13 +13631,13 @@
         <v>40</v>
       </c>
       <c r="D68" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
       <c r="E68" t="s">
-        <v>188</v>
+        <v>7</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -13963,13 +13651,13 @@
         <v>41</v>
       </c>
       <c r="D69" t="s">
-        <v>189</v>
+        <v>6</v>
       </c>
       <c r="E69" t="s">
-        <v>188</v>
+        <v>7</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -13983,13 +13671,13 @@
         <v>42</v>
       </c>
       <c r="D70" t="s">
-        <v>190</v>
+        <v>6</v>
       </c>
       <c r="E70" t="s">
-        <v>191</v>
+        <v>7</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -14003,13 +13691,13 @@
         <v>43</v>
       </c>
       <c r="D71" t="s">
-        <v>190</v>
+        <v>6</v>
       </c>
       <c r="E71" t="s">
-        <v>191</v>
+        <v>7</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -14023,13 +13711,13 @@
         <v>44</v>
       </c>
       <c r="D72" t="s">
-        <v>190</v>
+        <v>6</v>
       </c>
       <c r="E72" t="s">
-        <v>191</v>
+        <v>7</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -14043,13 +13731,13 @@
         <v>45</v>
       </c>
       <c r="D73" t="s">
-        <v>192</v>
+        <v>6</v>
       </c>
       <c r="E73" t="s">
-        <v>193</v>
+        <v>7</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -14063,13 +13751,13 @@
         <v>46</v>
       </c>
       <c r="D74" t="s">
-        <v>192</v>
+        <v>6</v>
       </c>
       <c r="E74" t="s">
-        <v>193</v>
+        <v>7</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -14083,13 +13771,13 @@
         <v>47</v>
       </c>
       <c r="D75" t="s">
-        <v>192</v>
+        <v>6</v>
       </c>
       <c r="E75" t="s">
-        <v>193</v>
+        <v>7</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -14103,13 +13791,13 @@
         <v>48</v>
       </c>
       <c r="D76" t="s">
-        <v>192</v>
+        <v>6</v>
       </c>
       <c r="E76" t="s">
-        <v>194</v>
+        <v>7</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -14123,13 +13811,13 @@
         <v>49</v>
       </c>
       <c r="D77" t="s">
-        <v>195</v>
+        <v>6</v>
       </c>
       <c r="E77" t="s">
-        <v>194</v>
+        <v>7</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -14143,13 +13831,13 @@
         <v>50</v>
       </c>
       <c r="D78" t="s">
-        <v>195</v>
+        <v>6</v>
       </c>
       <c r="E78" t="s">
-        <v>194</v>
+        <v>7</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -14163,13 +13851,13 @@
         <v>51</v>
       </c>
       <c r="D79" t="s">
-        <v>195</v>
+        <v>6</v>
       </c>
       <c r="E79" t="s">
-        <v>196</v>
+        <v>7</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -14183,13 +13871,13 @@
         <v>52</v>
       </c>
       <c r="D80" t="s">
-        <v>197</v>
+        <v>6</v>
       </c>
       <c r="E80" t="s">
-        <v>196</v>
+        <v>7</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -14203,13 +13891,13 @@
         <v>53</v>
       </c>
       <c r="D81" t="s">
-        <v>197</v>
+        <v>6</v>
       </c>
       <c r="E81" t="s">
-        <v>198</v>
+        <v>7</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -14223,13 +13911,13 @@
         <v>54</v>
       </c>
       <c r="D82" t="s">
-        <v>197</v>
+        <v>6</v>
       </c>
       <c r="E82" t="s">
-        <v>198</v>
+        <v>7</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -14243,13 +13931,13 @@
         <v>37</v>
       </c>
       <c r="D83" t="s">
-        <v>197</v>
+        <v>6</v>
       </c>
       <c r="E83" t="s">
-        <v>198</v>
+        <v>7</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -14263,13 +13951,13 @@
         <v>38</v>
       </c>
       <c r="D84" t="s">
-        <v>199</v>
+        <v>6</v>
       </c>
       <c r="E84" t="s">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -14283,13 +13971,13 @@
         <v>39</v>
       </c>
       <c r="D85" t="s">
-        <v>199</v>
+        <v>6</v>
       </c>
       <c r="E85" t="s">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -14303,13 +13991,13 @@
         <v>55</v>
       </c>
       <c r="D86" t="s">
-        <v>199</v>
+        <v>6</v>
       </c>
       <c r="E86" t="s">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -14323,13 +14011,13 @@
         <v>56</v>
       </c>
       <c r="D87" t="s">
-        <v>201</v>
+        <v>6</v>
       </c>
       <c r="E87" t="s">
-        <v>202</v>
+        <v>7</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -14343,13 +14031,13 @@
         <v>57</v>
       </c>
       <c r="D88" t="s">
-        <v>201</v>
+        <v>6</v>
       </c>
       <c r="E88" t="s">
-        <v>202</v>
+        <v>7</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -14363,13 +14051,13 @@
         <v>28</v>
       </c>
       <c r="D89" t="s">
-        <v>201</v>
+        <v>6</v>
       </c>
       <c r="E89" t="s">
-        <v>202</v>
+        <v>7</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -14383,13 +14071,13 @@
         <v>29</v>
       </c>
       <c r="D90" t="s">
-        <v>201</v>
+        <v>6</v>
       </c>
       <c r="E90" t="s">
-        <v>203</v>
+        <v>7</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -14403,13 +14091,13 @@
         <v>30</v>
       </c>
       <c r="D91" t="s">
-        <v>201</v>
+        <v>6</v>
       </c>
       <c r="E91" t="s">
-        <v>203</v>
+        <v>7</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -14423,13 +14111,13 @@
         <v>28</v>
       </c>
       <c r="D92" t="s">
-        <v>201</v>
+        <v>6</v>
       </c>
       <c r="E92" t="s">
-        <v>203</v>
+        <v>7</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -14443,13 +14131,13 @@
         <v>29</v>
       </c>
       <c r="D93" t="s">
-        <v>201</v>
+        <v>6</v>
       </c>
       <c r="E93" t="s">
-        <v>203</v>
+        <v>7</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -14463,13 +14151,13 @@
         <v>30</v>
       </c>
       <c r="D94" t="s">
-        <v>201</v>
+        <v>6</v>
       </c>
       <c r="E94" t="s">
-        <v>203</v>
+        <v>7</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">

--- a/template.xlsx
+++ b/template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="280">
   <si>
     <t>Language_id</t>
   </si>
@@ -34,21 +34,51 @@
     <t>US-en</t>
   </si>
   <si>
+    <t>2022-03-31T05:49:56.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:04:16.000Z</t>
+  </si>
+  <si>
     <t>active</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>IN-kn</t>
   </si>
   <si>
+    <t>2022-03-31T05:49:57.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:04:17.000Z</t>
+  </si>
+  <si>
     <t>IN-hi</t>
   </si>
   <si>
     <t>IN-ksn</t>
   </si>
   <si>
+    <t>2022-03-31T05:57:17.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:04:18.000Z</t>
+  </si>
+  <si>
+    <t>newLanguage</t>
+  </si>
+  <si>
+    <t>2022-04-01T07:43:03.000Z</t>
+  </si>
+  <si>
+    <t>newLanguage2</t>
+  </si>
+  <si>
+    <t>2022-04-01T07:54:50.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:04:19.000Z</t>
+  </si>
+  <si>
     <t>Page_id</t>
   </si>
   <si>
@@ -58,21 +88,57 @@
     <t>Login</t>
   </si>
   <si>
+    <t>2022-03-31T05:49:58.000Z</t>
+  </si>
+  <si>
     <t>Signup</t>
   </si>
   <si>
+    <t>2022-04-04T14:04:20.000Z</t>
+  </si>
+  <si>
     <t>Dashboard</t>
   </si>
   <si>
+    <t>2022-03-31T05:49:59.000Z</t>
+  </si>
+  <si>
     <t>Upload</t>
   </si>
   <si>
     <t>Preview</t>
   </si>
   <si>
+    <t>2022-04-04T14:04:21.000Z</t>
+  </si>
+  <si>
     <t>test</t>
   </si>
   <si>
+    <t>newPage</t>
+  </si>
+  <si>
+    <t>2022-04-01T09:33:26.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:04:22.000Z</t>
+  </si>
+  <si>
+    <t>AddLanguage</t>
+  </si>
+  <si>
+    <t>2022-04-01T10:06:43.000Z</t>
+  </si>
+  <si>
+    <t>AddPage</t>
+  </si>
+  <si>
+    <t>2022-04-01T10:07:38.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:04:23.000Z</t>
+  </si>
+  <si>
     <t>Label_id</t>
   </si>
   <si>
@@ -88,24 +154,42 @@
     <t>User Database</t>
   </si>
   <si>
+    <t>2022-03-31T05:50:00.000Z</t>
+  </si>
+  <si>
     <t>ಯೂಸರ್ ಡೇಟಾಬೇಸ್</t>
   </si>
   <si>
+    <t>2022-04-04T14:04:24.000Z</t>
+  </si>
+  <si>
     <t>यूजर डेटाबेस</t>
   </si>
   <si>
+    <t>2022-03-31T05:50:01.000Z</t>
+  </si>
+  <si>
     <t>signUp</t>
   </si>
   <si>
     <t>Sign Up</t>
   </si>
   <si>
+    <t>2022-04-04T14:04:25.000Z</t>
+  </si>
+  <si>
     <t>ಸೈನ್ ಅಪ್</t>
   </si>
   <si>
     <t>सैन अप</t>
   </si>
   <si>
+    <t>2022-03-31T05:50:02.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:04:26.000Z</t>
+  </si>
+  <si>
     <t>userName</t>
   </si>
   <si>
@@ -115,36 +199,63 @@
     <t>ಯೂಸರ್ ನೇಮ್</t>
   </si>
   <si>
+    <t>2022-04-04T14:04:27.000Z</t>
+  </si>
+  <si>
     <t>यूजर नाम</t>
   </si>
   <si>
+    <t>2022-03-31T05:50:03.000Z</t>
+  </si>
+  <si>
     <t>password</t>
   </si>
   <si>
+    <t>2022-04-04T14:04:28.000Z</t>
+  </si>
+  <si>
     <t>ಪಾಸ್ವರ್ಡ್</t>
   </si>
   <si>
     <t>पासवर्ड</t>
   </si>
   <si>
+    <t>2022-04-04T14:04:29.000Z</t>
+  </si>
+  <si>
     <t>signIn</t>
   </si>
   <si>
     <t>Sign In</t>
   </si>
   <si>
+    <t>2022-03-31T05:50:04.000Z</t>
+  </si>
+  <si>
     <t>ಸೈನ್ ಇನ್</t>
   </si>
   <si>
+    <t>2022-04-04T14:04:30.000Z</t>
+  </si>
+  <si>
     <t>सैन इन</t>
   </si>
   <si>
+    <t>2022-03-31T05:50:05.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:04:31.000Z</t>
+  </si>
+  <si>
     <t>login</t>
   </si>
   <si>
     <t>ಲಾಗಿನ್</t>
   </si>
   <si>
+    <t>2022-04-04T14:04:32.000Z</t>
+  </si>
+  <si>
     <t>लॉगिन</t>
   </si>
   <si>
@@ -154,21 +265,36 @@
     <t>First Name</t>
   </si>
   <si>
+    <t>2022-03-31T05:50:06.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:04:33.000Z</t>
+  </si>
+  <si>
     <t>ಫಸ್ಟ್ ನೇಮ್</t>
   </si>
   <si>
     <t>फर्स्ट नाम</t>
   </si>
   <si>
+    <t>2022-04-04T14:04:34.000Z</t>
+  </si>
+  <si>
     <t>lastName</t>
   </si>
   <si>
     <t>Last Name</t>
   </si>
   <si>
+    <t>2022-03-31T05:50:07.000Z</t>
+  </si>
+  <si>
     <t>ಲಾಸ್ಟ ನೇಮ್</t>
   </si>
   <si>
+    <t>2022-04-04T14:04:35.000Z</t>
+  </si>
+  <si>
     <t>लास्ट नाम</t>
   </si>
   <si>
@@ -178,24 +304,42 @@
     <t>Email</t>
   </si>
   <si>
+    <t>2022-03-31T05:50:08.000Z</t>
+  </si>
+  <si>
     <t>ಇಮೇಲ್</t>
   </si>
   <si>
+    <t>2022-04-04T14:04:36.000Z</t>
+  </si>
+  <si>
     <t>ईमेल</t>
   </si>
   <si>
+    <t>2022-03-31T05:50:09.000Z</t>
+  </si>
+  <si>
     <t>logout</t>
   </si>
   <si>
     <t>Logout</t>
   </si>
   <si>
+    <t>2022-04-04T14:04:37.000Z</t>
+  </si>
+  <si>
     <t>ಲಾಗ್ಔಟ್</t>
   </si>
   <si>
     <t>लॉगआउट</t>
   </si>
   <si>
+    <t>2022-03-31T05:50:10.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:04:38.000Z</t>
+  </si>
+  <si>
     <t>welcome</t>
   </si>
   <si>
@@ -208,6 +352,12 @@
     <t>स्वागत यूजर</t>
   </si>
   <si>
+    <t>2022-03-31T05:50:11.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:04:39.000Z</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -217,9 +367,15 @@
     <t>ಐಡೀ</t>
   </si>
   <si>
+    <t>2022-04-04T14:04:40.000Z</t>
+  </si>
+  <si>
     <t>आईडी</t>
   </si>
   <si>
+    <t>2022-03-31T05:50:12.000Z</t>
+  </si>
+  <si>
     <t>uploadFile</t>
   </si>
   <si>
@@ -229,39 +385,63 @@
     <t>ಫೈಲ್ ಅಪ್ಲೋಡ್</t>
   </si>
   <si>
+    <t>2022-04-04T14:04:41.000Z</t>
+  </si>
+  <si>
     <t>फाइल अपलोड</t>
   </si>
   <si>
+    <t>2022-03-31T05:50:13.000Z</t>
+  </si>
+  <si>
     <t>instruction</t>
   </si>
   <si>
     <t>Please download the template and make changes to the same file before uploading it</t>
   </si>
   <si>
+    <t>2022-04-04T14:04:42.000Z</t>
+  </si>
+  <si>
     <t>ದಯವಿಟ್ಟು ಟೆಂಪ್ಲೇಟ್ ಅನ್ನು ಡೌನ್‌ಲೋಡ್ ಮಾಡಿ ಮತ್ತು ಅದನ್ನು ಅಪ್‌ಲೋಡ್ ಮಾಡುವ ಮೊದಲು ಅದೇ ಫೈಲ್‌ಗೆ ಬದಲಾವಣೆಗಳನ್ನು ಮಾಡಿ</t>
   </si>
   <si>
     <t>कृपया टेम्पलेट डाउनलोड करें और अपलोड करने से पहले उसी फ़ाइल में परिवर्तन करें</t>
   </si>
   <si>
+    <t>2022-03-31T05:50:14.000Z</t>
+  </si>
+  <si>
     <t>download</t>
   </si>
   <si>
     <t>DOWNLOAD</t>
   </si>
   <si>
+    <t>2022-04-04T14:04:43.000Z</t>
+  </si>
+  <si>
     <t>ಡೌನ್ಲೋಡ್</t>
   </si>
   <si>
+    <t>2022-04-04T14:04:44.000Z</t>
+  </si>
+  <si>
     <t>डाउनलोड</t>
   </si>
   <si>
+    <t>2022-03-31T05:50:15.000Z</t>
+  </si>
+  <si>
     <t>uploadExcelFile</t>
   </si>
   <si>
     <t>Upload Excel File</t>
   </si>
   <si>
+    <t>2022-04-04T14:04:45.000Z</t>
+  </si>
+  <si>
     <t>ಎಕ್ಸೆಲ್ ಫೈಲ್ ಅನ್ನು ಅಪ್ಲೋಡ್ ಮಾಡಿ</t>
   </si>
   <si>
@@ -274,24 +454,39 @@
     <t>Make sure to upload the same template file which is edited and validated</t>
   </si>
   <si>
+    <t>2022-03-31T05:50:16.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:04:46.000Z</t>
+  </si>
+  <si>
     <t>ಸಂಪಾದಿಸಿದ ಮತ್ತು ಮೌಲ್ಯೀಕರಿಸಿದ ಅದೇ ಟೆಂಪ್ಲೇಟ್ ಫೈಲ್ ಅನ್ನು ಅಪ್‌ಲೋಡ್ ಮಾಡಲು ಖಚಿತಪಡಿಸಿಕೊಳ್ಳಿ</t>
   </si>
   <si>
     <t>उसी टेम्पलेट फ़ाइल को अपलोड करना सुनिश्चित करें जो संपादित और मान्य है</t>
   </si>
   <si>
+    <t>2022-04-04T14:04:47.000Z</t>
+  </si>
+  <si>
     <t>submit</t>
   </si>
   <si>
     <t>SUBMIT</t>
   </si>
   <si>
+    <t>2022-03-31T05:50:17.000Z</t>
+  </si>
+  <si>
     <t>ಅಪ್ಲೋಡ್</t>
   </si>
   <si>
     <t>अपलोड</t>
   </si>
   <si>
+    <t>2022-04-04T14:04:48.000Z</t>
+  </si>
+  <si>
     <t>message</t>
   </si>
   <si>
@@ -301,10 +496,364 @@
     <t>ಫೈಲ್ ಅನ್ನು ಯಶಸ್ವಿಯಾಗಿ ಅಪ್‌ಲೋಡ್ ಮಾಡಲಾಗಿದೆ</t>
   </si>
   <si>
+    <t>2022-03-31T05:50:18.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:04:49.000Z</t>
+  </si>
+  <si>
     <t>फ़ाइल सफलतापूर्वक अपलोड कर दी गई है</t>
   </si>
   <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>2022-04-01T10:24:39.000Z</t>
+  </si>
+  <si>
+    <t>ಸೇರಿಸಿ</t>
+  </si>
+  <si>
+    <t>2022-04-01T10:24:40.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:04:50.000Z</t>
+  </si>
+  <si>
+    <t>जोड़ें</t>
+  </si>
+  <si>
+    <t>addLanguage</t>
+  </si>
+  <si>
+    <t>Add Language</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:04:51.000Z</t>
+  </si>
+  <si>
+    <t>ಭಾಷೆ ಸೇರಿಸಿ</t>
+  </si>
+  <si>
+    <t>भाषा जोड़ें</t>
+  </si>
+  <si>
+    <t>New Language</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:04:52.000Z</t>
+  </si>
+  <si>
+    <t>ಹೊಸ ಭಾಷೆ</t>
+  </si>
+  <si>
+    <t>2022-04-01T10:24:41.000Z</t>
+  </si>
+  <si>
+    <t>नई भाषा</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:04:53.000Z</t>
+  </si>
+  <si>
+    <t>addPage</t>
+  </si>
+  <si>
+    <t>Add Page</t>
+  </si>
+  <si>
+    <t>ಪುಟ ಸೇರಿಸಿ</t>
+  </si>
+  <si>
+    <t>पेज जोड़ें</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:04:54.000Z</t>
+  </si>
+  <si>
+    <t>New Page</t>
+  </si>
+  <si>
+    <t>ಹೊಸ ಪುಟ</t>
+  </si>
+  <si>
+    <t>2022-04-01T10:24:42.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:04:55.000Z</t>
+  </si>
+  <si>
+    <t>नया पेज</t>
+  </si>
+  <si>
     <t>Page_map_id</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:19.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:04:56.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:04:57.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:20.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:04:58.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:21.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:04:59.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:22.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:00.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:23.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:01.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:24.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:02.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:03.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:25.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:04.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:05.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:26.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:06.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:27.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:07.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:28.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:08.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:29.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:09.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:30.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:10.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:11.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:31.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:32.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:12.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:13.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:33.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:14.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:34.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:15.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:16.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:35.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:17.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:36.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:18.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:37.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:19.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:38.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:20.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:39.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:21.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:22.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:40.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:23.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:41.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:24.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:42.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:25.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:26.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:43.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:27.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:44.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:28.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:45.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:29.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:46.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:30.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:31.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:47.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:32.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:48.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:33.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:34.000Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T05:50:49.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-01T10:39:02.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-01T10:39:03.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:35.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:36.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-01T10:39:04.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:37.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:38.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:39.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-01T10:39:05.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:40.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:41.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:42.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-01T10:39:06.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:43.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:44.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-01T10:39:07.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:45.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T14:05:46.000Z</t>
   </si>
 </sst>
 </file>
@@ -648,7 +1197,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -656,16 +1205,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -673,16 +1222,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -690,18 +1239,51 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E7" s="4"/>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E8" s="4"/>
@@ -3713,10 +4295,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -3733,16 +4315,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3750,16 +4332,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3767,16 +4349,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3784,16 +4366,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3801,16 +4383,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3818,26 +4400,68 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E10" s="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E11" s="4"/>
@@ -6839,13 +7463,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -6865,22 +7489,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -6888,22 +7512,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D3" s="5">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -6911,22 +7535,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D4" s="5">
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -6934,22 +7558,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -6957,22 +7581,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -6980,22 +7604,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D7" s="5">
         <v>3</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -7003,22 +7627,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -7026,22 +7650,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D9" s="5">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -7049,22 +7673,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D10" s="5">
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -7072,22 +7696,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -7095,22 +7719,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="D12" s="5">
         <v>2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -7118,22 +7742,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D13" s="5">
         <v>3</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -7141,22 +7765,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -7164,22 +7788,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="D15" s="5">
         <v>2</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -7187,22 +7811,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="D16" s="5">
         <v>3</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -7210,22 +7834,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D17" s="5">
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -7233,22 +7857,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="D18" s="5">
         <v>2</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -7256,22 +7880,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="D19" s="5">
         <v>3</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -7279,22 +7903,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -7302,22 +7926,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="D21" s="5">
         <v>2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -7325,22 +7949,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="D22" s="5">
         <v>3</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -7348,22 +7972,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="D23" s="5">
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -7371,22 +7995,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D24" s="5">
         <v>2</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -7394,22 +8018,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="D25" s="5">
         <v>3</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -7417,22 +8041,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="D26" s="5">
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -7440,22 +8064,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D27" s="5">
         <v>2</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -7463,22 +8087,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="D28" s="5">
         <v>3</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -7486,22 +8110,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="D29" s="5">
         <v>1</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -7509,22 +8133,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="D30" s="5">
         <v>2</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -7532,22 +8156,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="D31" s="5">
         <v>3</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -7555,22 +8179,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="D32" s="5">
         <v>1</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -7578,22 +8202,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="D33" s="5">
         <v>2</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -7601,22 +8225,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="D34" s="5">
         <v>3</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -7624,22 +8248,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="D35" s="5">
         <v>1</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -7647,22 +8271,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="D36" s="5">
         <v>2</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -7670,22 +8294,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="D37" s="5">
         <v>3</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -7693,22 +8317,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="F38" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -7716,22 +8340,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="D39" s="2">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="F39" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -7739,22 +8363,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="D40" s="2">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="F40" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -7762,22 +8386,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="F41" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -7785,22 +8409,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="D42" s="2">
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="F42" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -7808,22 +8432,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="D43" s="2">
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="F43" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -7831,22 +8455,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="F44" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -7854,22 +8478,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="D45" s="2">
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="F45" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -7877,22 +8501,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="D46" s="2">
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="F46" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -7900,22 +8524,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="D47" s="2">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="F47" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -7923,22 +8547,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="D48" s="2">
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="F48" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -7946,22 +8570,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="D49" s="2">
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="F49" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -7969,22 +8593,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="F50" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -7992,22 +8616,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="D51" s="2">
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="F51" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -8015,22 +8639,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="D52" s="2">
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="F52" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -8038,22 +8662,22 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="D53" s="2">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="F53" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -8061,22 +8685,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="D54" s="2">
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="F54" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -8084,22 +8708,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="D55" s="2">
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="F55" t="s">
-        <v>7</v>
+        <v>156</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -8107,22 +8731,22 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="D56" s="2">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="F56" t="s">
-        <v>7</v>
+        <v>156</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -8130,22 +8754,22 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="D57" s="2">
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="F57" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -8153,98 +8777,368 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="D58" s="2">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="F58" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="D59" s="4"/>
-      <c r="G59" s="4"/>
+      <c r="A59" s="5">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" t="s">
+        <v>164</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>165</v>
+      </c>
+      <c r="F59" t="s">
+        <v>161</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="D60" s="4"/>
-      <c r="G60" s="4"/>
+      <c r="A60" s="5">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>163</v>
+      </c>
+      <c r="C60" t="s">
+        <v>166</v>
+      </c>
+      <c r="D60" s="4">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>167</v>
+      </c>
+      <c r="F60" t="s">
+        <v>168</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="D61" s="4"/>
-      <c r="G61" s="4"/>
+      <c r="A61" s="5">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>163</v>
+      </c>
+      <c r="C61" t="s">
+        <v>169</v>
+      </c>
+      <c r="D61" s="4">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>167</v>
+      </c>
+      <c r="F61" t="s">
+        <v>168</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="D62" s="4"/>
-      <c r="G62" s="4"/>
+      <c r="A62" s="5">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>170</v>
+      </c>
+      <c r="C62" t="s">
+        <v>171</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>167</v>
+      </c>
+      <c r="F62" t="s">
+        <v>172</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-      <c r="D63" s="4"/>
-      <c r="G63" s="4"/>
+      <c r="A63" s="5">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>170</v>
+      </c>
+      <c r="C63" t="s">
+        <v>173</v>
+      </c>
+      <c r="D63" s="4">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>167</v>
+      </c>
+      <c r="F63" t="s">
+        <v>172</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="D64" s="4"/>
-      <c r="G64" s="4"/>
+      <c r="A64" s="5">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>170</v>
+      </c>
+      <c r="C64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D64" s="4">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>167</v>
+      </c>
+      <c r="F64" t="s">
+        <v>172</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="D65" s="4"/>
-      <c r="G65" s="4"/>
+      <c r="A65" s="5">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>167</v>
+      </c>
+      <c r="F65" t="s">
+        <v>176</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="D66" s="4"/>
-      <c r="G66" s="4"/>
+      <c r="A66" s="5">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" t="s">
+        <v>177</v>
+      </c>
+      <c r="D66" s="4">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>178</v>
+      </c>
+      <c r="F66" t="s">
+        <v>176</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="D67" s="4"/>
-      <c r="G67" s="4"/>
+      <c r="A67" s="5">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" t="s">
+        <v>179</v>
+      </c>
+      <c r="D67" s="4">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>178</v>
+      </c>
+      <c r="F67" t="s">
+        <v>180</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
-      <c r="D68" s="4"/>
-      <c r="G68" s="4"/>
+      <c r="A68" s="5">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>181</v>
+      </c>
+      <c r="C68" t="s">
+        <v>182</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>178</v>
+      </c>
+      <c r="F68" t="s">
+        <v>180</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-      <c r="D69" s="4"/>
-      <c r="G69" s="4"/>
+      <c r="A69" s="5">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>181</v>
+      </c>
+      <c r="C69" t="s">
+        <v>183</v>
+      </c>
+      <c r="D69" s="4">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>178</v>
+      </c>
+      <c r="F69" t="s">
+        <v>180</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="D70" s="4"/>
-      <c r="G70" s="4"/>
+      <c r="A70" s="5">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>181</v>
+      </c>
+      <c r="C70" t="s">
+        <v>184</v>
+      </c>
+      <c r="D70" s="4">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>178</v>
+      </c>
+      <c r="F70" t="s">
+        <v>185</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-      <c r="D71" s="4"/>
-      <c r="G71" s="4"/>
+      <c r="A71" s="5">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" t="s">
+        <v>186</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>178</v>
+      </c>
+      <c r="F71" t="s">
+        <v>185</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-      <c r="D72" s="4"/>
-      <c r="G72" s="4"/>
+      <c r="A72" s="5">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" t="s">
+        <v>187</v>
+      </c>
+      <c r="D72" s="4">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>188</v>
+      </c>
+      <c r="F72" t="s">
+        <v>189</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
-      <c r="D73" s="4"/>
-      <c r="G73" s="4"/>
+      <c r="A73" s="5">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" t="s">
+        <v>190</v>
+      </c>
+      <c r="D73" s="4">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>188</v>
+      </c>
+      <c r="F73" t="s">
+        <v>189</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
@@ -12282,13 +13176,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>191</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -12311,13 +13205,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>192</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>193</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -12331,13 +13225,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>192</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>7</v>
+        <v>193</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -12351,13 +13245,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>192</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>7</v>
+        <v>194</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -12371,13 +13265,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>195</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>7</v>
+        <v>194</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -12391,13 +13285,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>6</v>
+        <v>195</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>7</v>
+        <v>194</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -12411,13 +13305,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>6</v>
+        <v>195</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -12431,13 +13325,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -12451,13 +13345,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>7</v>
+        <v>198</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -12471,13 +13365,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>7</v>
+        <v>198</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -12491,13 +13385,13 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>6</v>
+        <v>199</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>7</v>
+        <v>198</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -12511,13 +13405,13 @@
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>6</v>
+        <v>199</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -12531,13 +13425,13 @@
         <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>6</v>
+        <v>199</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -12551,13 +13445,13 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -12571,13 +13465,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -12591,13 +13485,13 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -12611,13 +13505,13 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>7</v>
+        <v>204</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -12631,13 +13525,13 @@
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>7</v>
+        <v>204</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -12651,13 +13545,13 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -12671,13 +13565,13 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -12691,13 +13585,13 @@
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -12711,13 +13605,13 @@
         <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -12731,13 +13625,13 @@
         <v>22</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>7</v>
+        <v>208</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -12751,13 +13645,13 @@
         <v>23</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>7</v>
+        <v>208</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -12771,13 +13665,13 @@
         <v>24</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>7</v>
+        <v>208</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -12791,13 +13685,13 @@
         <v>25</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>7</v>
+        <v>210</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -12811,13 +13705,13 @@
         <v>26</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>6</v>
+        <v>211</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>7</v>
+        <v>210</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -12831,13 +13725,13 @@
         <v>27</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>6</v>
+        <v>211</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>7</v>
+        <v>212</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -12851,13 +13745,13 @@
         <v>28</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>6</v>
+        <v>211</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>7</v>
+        <v>212</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -12871,13 +13765,13 @@
         <v>29</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>6</v>
+        <v>213</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>7</v>
+        <v>212</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -12891,13 +13785,13 @@
         <v>30</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>6</v>
+        <v>213</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>7</v>
+        <v>214</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -12911,13 +13805,13 @@
         <v>31</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>6</v>
+        <v>215</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>7</v>
+        <v>214</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -12931,13 +13825,13 @@
         <v>32</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>6</v>
+        <v>215</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>7</v>
+        <v>216</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -12951,13 +13845,13 @@
         <v>33</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>6</v>
+        <v>215</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>7</v>
+        <v>216</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -12971,13 +13865,13 @@
         <v>34</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>6</v>
+        <v>217</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>7</v>
+        <v>216</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -12991,13 +13885,13 @@
         <v>35</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>6</v>
+        <v>217</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>7</v>
+        <v>218</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -13011,13 +13905,13 @@
         <v>36</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>6</v>
+        <v>217</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>7</v>
+        <v>218</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -13031,13 +13925,13 @@
         <v>1</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>6</v>
+        <v>217</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>7</v>
+        <v>219</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -13051,13 +13945,13 @@
         <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>7</v>
+        <v>219</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -13071,13 +13965,13 @@
         <v>3</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>7</v>
+        <v>219</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -13091,13 +13985,13 @@
         <v>4</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -13111,13 +14005,13 @@
         <v>5</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -13131,13 +14025,13 @@
         <v>6</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>7</v>
+        <v>223</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -13151,13 +14045,13 @@
         <v>7</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>7</v>
+        <v>223</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -13171,13 +14065,13 @@
         <v>8</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>6</v>
+        <v>224</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>7</v>
+        <v>225</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -13191,13 +14085,13 @@
         <v>9</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>6</v>
+        <v>224</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>7</v>
+        <v>225</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -13211,13 +14105,13 @@
         <v>10</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>6</v>
+        <v>226</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>7</v>
+        <v>225</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -13231,13 +14125,13 @@
         <v>11</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>6</v>
+        <v>226</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>7</v>
+        <v>227</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -13251,13 +14145,13 @@
         <v>12</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>6</v>
+        <v>226</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>7</v>
+        <v>227</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -13271,13 +14165,13 @@
         <v>7</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>6</v>
+        <v>226</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>7</v>
+        <v>228</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -13291,13 +14185,13 @@
         <v>8</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>6</v>
+        <v>229</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>7</v>
+        <v>228</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -13311,13 +14205,13 @@
         <v>9</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>6</v>
+        <v>229</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>7</v>
+        <v>228</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -13331,13 +14225,13 @@
         <v>19</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>6</v>
+        <v>229</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>7</v>
+        <v>230</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -13351,13 +14245,13 @@
         <v>20</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>6</v>
+        <v>231</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>7</v>
+        <v>230</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -13371,13 +14265,13 @@
         <v>21</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>6</v>
+        <v>231</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>7</v>
+        <v>232</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -13391,13 +14285,13 @@
         <v>22</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>6</v>
+        <v>233</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>7</v>
+        <v>232</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -13411,13 +14305,13 @@
         <v>23</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>6</v>
+        <v>233</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>7</v>
+        <v>232</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -13431,13 +14325,13 @@
         <v>24</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>6</v>
+        <v>233</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>7</v>
+        <v>234</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -13451,13 +14345,13 @@
         <v>25</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>7</v>
+        <v>236</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -13471,13 +14365,13 @@
         <v>26</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>7</v>
+        <v>236</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -13491,13 +14385,13 @@
         <v>27</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>7</v>
+        <v>236</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -13511,13 +14405,13 @@
         <v>1</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>6</v>
+        <v>237</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>7</v>
+        <v>238</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -13531,13 +14425,13 @@
         <v>2</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>6</v>
+        <v>237</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>7</v>
+        <v>238</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -13551,13 +14445,13 @@
         <v>3</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>6</v>
+        <v>237</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>7</v>
+        <v>239</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -13571,13 +14465,13 @@
         <v>37</v>
       </c>
       <c r="D65" t="s">
-        <v>6</v>
+        <v>237</v>
       </c>
       <c r="E65" t="s">
-        <v>7</v>
+        <v>239</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -13591,13 +14485,13 @@
         <v>38</v>
       </c>
       <c r="D66" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
       <c r="E66" t="s">
-        <v>7</v>
+        <v>239</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -13611,13 +14505,13 @@
         <v>39</v>
       </c>
       <c r="D67" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
       <c r="E67" t="s">
-        <v>7</v>
+        <v>241</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -13631,13 +14525,13 @@
         <v>40</v>
       </c>
       <c r="D68" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
       <c r="E68" t="s">
-        <v>7</v>
+        <v>241</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -13651,13 +14545,13 @@
         <v>41</v>
       </c>
       <c r="D69" t="s">
-        <v>6</v>
+        <v>242</v>
       </c>
       <c r="E69" t="s">
-        <v>7</v>
+        <v>243</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -13671,13 +14565,13 @@
         <v>42</v>
       </c>
       <c r="D70" t="s">
-        <v>6</v>
+        <v>242</v>
       </c>
       <c r="E70" t="s">
-        <v>7</v>
+        <v>243</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -13691,13 +14585,13 @@
         <v>43</v>
       </c>
       <c r="D71" t="s">
-        <v>6</v>
+        <v>242</v>
       </c>
       <c r="E71" t="s">
-        <v>7</v>
+        <v>243</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -13711,13 +14605,13 @@
         <v>44</v>
       </c>
       <c r="D72" t="s">
-        <v>6</v>
+        <v>244</v>
       </c>
       <c r="E72" t="s">
-        <v>7</v>
+        <v>245</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -13731,13 +14625,13 @@
         <v>45</v>
       </c>
       <c r="D73" t="s">
-        <v>6</v>
+        <v>244</v>
       </c>
       <c r="E73" t="s">
-        <v>7</v>
+        <v>245</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -13751,13 +14645,13 @@
         <v>46</v>
       </c>
       <c r="D74" t="s">
-        <v>6</v>
+        <v>244</v>
       </c>
       <c r="E74" t="s">
-        <v>7</v>
+        <v>246</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -13771,13 +14665,13 @@
         <v>47</v>
       </c>
       <c r="D75" t="s">
-        <v>6</v>
+        <v>247</v>
       </c>
       <c r="E75" t="s">
-        <v>7</v>
+        <v>246</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -13791,13 +14685,13 @@
         <v>48</v>
       </c>
       <c r="D76" t="s">
-        <v>6</v>
+        <v>247</v>
       </c>
       <c r="E76" t="s">
-        <v>7</v>
+        <v>248</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -13811,13 +14705,13 @@
         <v>49</v>
       </c>
       <c r="D77" t="s">
-        <v>6</v>
+        <v>247</v>
       </c>
       <c r="E77" t="s">
-        <v>7</v>
+        <v>248</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -13831,13 +14725,13 @@
         <v>50</v>
       </c>
       <c r="D78" t="s">
-        <v>6</v>
+        <v>249</v>
       </c>
       <c r="E78" t="s">
-        <v>7</v>
+        <v>248</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -13851,13 +14745,13 @@
         <v>51</v>
       </c>
       <c r="D79" t="s">
-        <v>6</v>
+        <v>249</v>
       </c>
       <c r="E79" t="s">
-        <v>7</v>
+        <v>250</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -13871,13 +14765,13 @@
         <v>52</v>
       </c>
       <c r="D80" t="s">
-        <v>6</v>
+        <v>249</v>
       </c>
       <c r="E80" t="s">
-        <v>7</v>
+        <v>250</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -13891,13 +14785,13 @@
         <v>53</v>
       </c>
       <c r="D81" t="s">
-        <v>6</v>
+        <v>251</v>
       </c>
       <c r="E81" t="s">
-        <v>7</v>
+        <v>252</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -13911,13 +14805,13 @@
         <v>54</v>
       </c>
       <c r="D82" t="s">
-        <v>6</v>
+        <v>251</v>
       </c>
       <c r="E82" t="s">
-        <v>7</v>
+        <v>252</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -13931,13 +14825,13 @@
         <v>37</v>
       </c>
       <c r="D83" t="s">
-        <v>6</v>
+        <v>251</v>
       </c>
       <c r="E83" t="s">
-        <v>7</v>
+        <v>252</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -13951,13 +14845,13 @@
         <v>38</v>
       </c>
       <c r="D84" t="s">
-        <v>6</v>
+        <v>253</v>
       </c>
       <c r="E84" t="s">
-        <v>7</v>
+        <v>254</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -13971,13 +14865,13 @@
         <v>39</v>
       </c>
       <c r="D85" t="s">
-        <v>6</v>
+        <v>253</v>
       </c>
       <c r="E85" t="s">
-        <v>7</v>
+        <v>254</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -13991,13 +14885,13 @@
         <v>55</v>
       </c>
       <c r="D86" t="s">
-        <v>6</v>
+        <v>253</v>
       </c>
       <c r="E86" t="s">
-        <v>7</v>
+        <v>255</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -14011,13 +14905,13 @@
         <v>56</v>
       </c>
       <c r="D87" t="s">
-        <v>6</v>
+        <v>253</v>
       </c>
       <c r="E87" t="s">
-        <v>7</v>
+        <v>255</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -14031,13 +14925,13 @@
         <v>57</v>
       </c>
       <c r="D88" t="s">
-        <v>6</v>
+        <v>256</v>
       </c>
       <c r="E88" t="s">
-        <v>7</v>
+        <v>257</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -14051,13 +14945,13 @@
         <v>28</v>
       </c>
       <c r="D89" t="s">
-        <v>6</v>
+        <v>256</v>
       </c>
       <c r="E89" t="s">
-        <v>7</v>
+        <v>257</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -14071,13 +14965,13 @@
         <v>29</v>
       </c>
       <c r="D90" t="s">
-        <v>6</v>
+        <v>256</v>
       </c>
       <c r="E90" t="s">
-        <v>7</v>
+        <v>257</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -14091,13 +14985,13 @@
         <v>30</v>
       </c>
       <c r="D91" t="s">
-        <v>6</v>
+        <v>258</v>
       </c>
       <c r="E91" t="s">
-        <v>7</v>
+        <v>259</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -14111,13 +15005,13 @@
         <v>28</v>
       </c>
       <c r="D92" t="s">
-        <v>6</v>
+        <v>258</v>
       </c>
       <c r="E92" t="s">
-        <v>7</v>
+        <v>259</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -14131,13 +15025,13 @@
         <v>29</v>
       </c>
       <c r="D93" t="s">
-        <v>6</v>
+        <v>258</v>
       </c>
       <c r="E93" t="s">
-        <v>7</v>
+        <v>260</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -14151,164 +15045,614 @@
         <v>30</v>
       </c>
       <c r="D94" t="s">
-        <v>6</v>
+        <v>261</v>
       </c>
       <c r="E94" t="s">
-        <v>7</v>
+        <v>260</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="F95" s="4"/>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="F96" s="4"/>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="F97" s="4"/>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="F98" s="4"/>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="F99" s="4"/>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="F100" s="4"/>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="F101" s="4"/>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="F102" s="4"/>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="F103" s="4"/>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="F104" s="4"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="F105" s="4"/>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="F106" s="4"/>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="F107" s="4"/>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="F108" s="4"/>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="F109" s="4"/>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="F110" s="4"/>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="F111" s="4"/>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="F112" s="4"/>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-      <c r="F113" s="4"/>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-      <c r="F114" s="4"/>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="F115" s="4"/>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="F116" s="4"/>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="F117" s="4"/>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="F118" s="4"/>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="F119" s="4"/>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="F120" s="4"/>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="F121" s="4"/>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="F122" s="4"/>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="F123" s="4"/>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="F124" s="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="4">
+        <v>9</v>
+      </c>
+      <c r="C95" s="4">
+        <v>37</v>
+      </c>
+      <c r="D95" t="s">
+        <v>262</v>
+      </c>
+      <c r="E95" t="s">
+        <v>260</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4">
+        <v>9</v>
+      </c>
+      <c r="C96" s="4">
+        <v>38</v>
+      </c>
+      <c r="D96" t="s">
+        <v>263</v>
+      </c>
+      <c r="E96" t="s">
+        <v>264</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="4">
+        <v>9</v>
+      </c>
+      <c r="C97" s="4">
+        <v>39</v>
+      </c>
+      <c r="D97" t="s">
+        <v>263</v>
+      </c>
+      <c r="E97" t="s">
+        <v>264</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="4">
+        <v>9</v>
+      </c>
+      <c r="C98" s="4">
+        <v>28</v>
+      </c>
+      <c r="D98" t="s">
+        <v>263</v>
+      </c>
+      <c r="E98" t="s">
+        <v>265</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="4">
+        <v>9</v>
+      </c>
+      <c r="C99" s="4">
+        <v>29</v>
+      </c>
+      <c r="D99" t="s">
+        <v>263</v>
+      </c>
+      <c r="E99" t="s">
+        <v>265</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="4">
+        <v>9</v>
+      </c>
+      <c r="C100" s="4">
+        <v>30</v>
+      </c>
+      <c r="D100" t="s">
+        <v>263</v>
+      </c>
+      <c r="E100" t="s">
+        <v>265</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="4">
+        <v>9</v>
+      </c>
+      <c r="C101" s="4">
+        <v>58</v>
+      </c>
+      <c r="D101" t="s">
+        <v>266</v>
+      </c>
+      <c r="E101" t="s">
+        <v>267</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="4">
+        <v>9</v>
+      </c>
+      <c r="C102" s="4">
+        <v>59</v>
+      </c>
+      <c r="D102" t="s">
+        <v>266</v>
+      </c>
+      <c r="E102" t="s">
+        <v>267</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="4">
+        <v>9</v>
+      </c>
+      <c r="C103" s="4">
+        <v>60</v>
+      </c>
+      <c r="D103" t="s">
+        <v>266</v>
+      </c>
+      <c r="E103" t="s">
+        <v>268</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="4">
+        <v>9</v>
+      </c>
+      <c r="C104" s="4">
+        <v>61</v>
+      </c>
+      <c r="D104" t="s">
+        <v>266</v>
+      </c>
+      <c r="E104" t="s">
+        <v>268</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="4">
+        <v>9</v>
+      </c>
+      <c r="C105" s="4">
+        <v>62</v>
+      </c>
+      <c r="D105" t="s">
+        <v>266</v>
+      </c>
+      <c r="E105" t="s">
+        <v>268</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="4">
+        <v>9</v>
+      </c>
+      <c r="C106" s="4">
+        <v>63</v>
+      </c>
+      <c r="D106" t="s">
+        <v>266</v>
+      </c>
+      <c r="E106" t="s">
+        <v>269</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="4">
+        <v>9</v>
+      </c>
+      <c r="C107" s="4">
+        <v>64</v>
+      </c>
+      <c r="D107" t="s">
+        <v>266</v>
+      </c>
+      <c r="E107" t="s">
+        <v>269</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="4">
+        <v>9</v>
+      </c>
+      <c r="C108" s="4">
+        <v>65</v>
+      </c>
+      <c r="D108" t="s">
+        <v>270</v>
+      </c>
+      <c r="E108" t="s">
+        <v>271</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="4">
+        <v>9</v>
+      </c>
+      <c r="C109" s="4">
+        <v>66</v>
+      </c>
+      <c r="D109" t="s">
+        <v>270</v>
+      </c>
+      <c r="E109" t="s">
+        <v>271</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="4">
+        <v>10</v>
+      </c>
+      <c r="C110" s="4">
+        <v>37</v>
+      </c>
+      <c r="D110" t="s">
+        <v>270</v>
+      </c>
+      <c r="E110" t="s">
+        <v>271</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="4">
+        <v>10</v>
+      </c>
+      <c r="C111" s="4">
+        <v>38</v>
+      </c>
+      <c r="D111" t="s">
+        <v>270</v>
+      </c>
+      <c r="E111" t="s">
+        <v>272</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="4">
+        <v>10</v>
+      </c>
+      <c r="C112" s="4">
+        <v>39</v>
+      </c>
+      <c r="D112" t="s">
+        <v>270</v>
+      </c>
+      <c r="E112" t="s">
+        <v>272</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="4">
+        <v>10</v>
+      </c>
+      <c r="C113" s="4">
+        <v>28</v>
+      </c>
+      <c r="D113" t="s">
+        <v>270</v>
+      </c>
+      <c r="E113" t="s">
+        <v>273</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="4">
+        <v>10</v>
+      </c>
+      <c r="C114" s="4">
+        <v>29</v>
+      </c>
+      <c r="D114" t="s">
+        <v>274</v>
+      </c>
+      <c r="E114" t="s">
+        <v>273</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="4">
+        <v>10</v>
+      </c>
+      <c r="C115" s="4">
+        <v>30</v>
+      </c>
+      <c r="D115" t="s">
+        <v>274</v>
+      </c>
+      <c r="E115" t="s">
+        <v>273</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="4">
+        <v>10</v>
+      </c>
+      <c r="C116" s="4">
+        <v>58</v>
+      </c>
+      <c r="D116" t="s">
+        <v>274</v>
+      </c>
+      <c r="E116" t="s">
+        <v>275</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="4">
+        <v>10</v>
+      </c>
+      <c r="C117" s="4">
+        <v>59</v>
+      </c>
+      <c r="D117" t="s">
+        <v>274</v>
+      </c>
+      <c r="E117" t="s">
+        <v>275</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="4">
+        <v>10</v>
+      </c>
+      <c r="C118" s="4">
+        <v>60</v>
+      </c>
+      <c r="D118" t="s">
+        <v>274</v>
+      </c>
+      <c r="E118" t="s">
+        <v>276</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="4">
+        <v>10</v>
+      </c>
+      <c r="C119" s="4">
+        <v>67</v>
+      </c>
+      <c r="D119" t="s">
+        <v>274</v>
+      </c>
+      <c r="E119" t="s">
+        <v>276</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="4">
+        <v>10</v>
+      </c>
+      <c r="C120" s="4">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>274</v>
+      </c>
+      <c r="E120" t="s">
+        <v>276</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="4">
+        <v>10</v>
+      </c>
+      <c r="C121" s="4">
+        <v>69</v>
+      </c>
+      <c r="D121" t="s">
+        <v>277</v>
+      </c>
+      <c r="E121" t="s">
+        <v>278</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="4">
+        <v>10</v>
+      </c>
+      <c r="C122" s="4">
+        <v>70</v>
+      </c>
+      <c r="D122" t="s">
+        <v>277</v>
+      </c>
+      <c r="E122" t="s">
+        <v>278</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="4">
+        <v>10</v>
+      </c>
+      <c r="C123" s="4">
+        <v>71</v>
+      </c>
+      <c r="D123" t="s">
+        <v>277</v>
+      </c>
+      <c r="E123" t="s">
+        <v>279</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="4">
+        <v>10</v>
+      </c>
+      <c r="C124" s="4">
+        <v>72</v>
+      </c>
+      <c r="D124" t="s">
+        <v>277</v>
+      </c>
+      <c r="E124" t="s">
+        <v>279</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B125" s="4"/>
